--- a/scripts/src/config/历史交易盈亏.xlsx
+++ b/scripts/src/config/历史交易盈亏.xlsx
@@ -5,16 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kangliquan\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\finance-data\Scripts\src\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2BE0767-2481-4A8C-B969-BEF745040B99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88F34C46-0E7C-4C17-8B8B-B9BD3AA7F069}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29625" yWindow="3105" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8475" yWindow="2340" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="历史交易盈亏" sheetId="3" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">历史交易盈亏!$A$1:$H$44</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -33,7 +36,7 @@
     <author>kangliquan</author>
   </authors>
   <commentList>
-    <comment ref="C36" authorId="0" shapeId="0" xr:uid="{3E505844-047B-46FE-95CA-F4C7CE10ED82}">
+    <comment ref="C40" authorId="0" shapeId="0" xr:uid="{3E505844-047B-46FE-95CA-F4C7CE10ED82}">
       <text>
         <r>
           <rPr>
@@ -53,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="96">
   <si>
     <t>基金代码</t>
   </si>
@@ -67,9 +70,6 @@
     <t>三级分类</t>
   </si>
   <si>
-    <t>分类 ID</t>
-  </si>
-  <si>
     <t>来源</t>
   </si>
   <si>
@@ -791,6 +791,62 @@
       </rPr>
       <t>A</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中风险理财</t>
+  </si>
+  <si>
+    <t>企业借贷</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分类</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ID</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>持有人</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>康力泉</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>父母</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -904,7 +960,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -938,6 +994,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1242,10 +1304,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFB6DA6C-0982-42D1-A4BB-A258CDFBC523}">
-  <dimension ref="A1:H44"/>
+  <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1260,15 +1322,15 @@
     <col min="8" max="8" width="9.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16.5">
+    <row r="1" spans="1:9" ht="16.5">
       <c r="A1" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>1</v>
@@ -1279,16 +1341,19 @@
       <c r="F1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="14.25">
+      <c r="I1" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="14.25">
       <c r="A2" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B2" s="10">
         <v>510050</v>
@@ -1297,24 +1362,27 @@
         <v>183.3</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G2" s="6">
         <v>111</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="14.25" customHeight="1">
+        <v>8</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="14.25" customHeight="1">
       <c r="A3" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3" s="10">
         <v>510300</v>
@@ -1323,24 +1391,27 @@
         <v>453.1</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G3" s="6">
         <v>113</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="14.25">
+        <v>8</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="14.25">
       <c r="A4" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" s="10">
         <v>159902</v>
@@ -1349,24 +1420,27 @@
         <v>189.3</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G4" s="6">
         <v>117</v>
       </c>
       <c r="H4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="14.25" customHeight="1">
+      <c r="A5" s="5" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="14.25">
-      <c r="A5" s="5" t="s">
-        <v>10</v>
       </c>
       <c r="B5" s="10">
         <v>510500</v>
@@ -1375,24 +1449,27 @@
         <v>3809.67</v>
       </c>
       <c r="D5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>7</v>
-      </c>
       <c r="F5" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G5" s="6">
         <v>121</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="14.25">
+        <v>8</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="14.25">
       <c r="A6" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" s="10">
         <v>512100</v>
@@ -1401,24 +1478,27 @@
         <v>-5258.97</v>
       </c>
       <c r="D6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>7</v>
-      </c>
       <c r="F6" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G6" s="6">
         <v>123</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="14.25">
+        <v>8</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="14.25" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B7" s="11">
         <v>3765</v>
@@ -1427,24 +1507,27 @@
         <v>61.68</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G7" s="2">
         <v>124</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="14.25" customHeight="1">
+        <v>87</v>
+      </c>
+      <c r="I7" s="16" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="14.25" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B8" s="11">
         <v>110026</v>
@@ -1453,76 +1536,85 @@
         <v>1866.02</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G8" s="2">
         <v>124</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="14.25">
+        <v>26</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="14.25">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B9" s="11">
         <v>110022</v>
       </c>
       <c r="C9" s="4">
-        <v>3540.4400000000005</v>
+        <v>221.28</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>25</v>
+        <v>86</v>
       </c>
       <c r="G9" s="2">
         <v>147</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="14.25">
+        <v>87</v>
+      </c>
+      <c r="I9" s="16" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="14.25">
       <c r="A10" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10" s="11">
         <v>110022</v>
       </c>
       <c r="C10" s="4">
-        <v>221.28</v>
+        <v>3540.4400000000005</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>73</v>
+        <v>5</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="G10" s="2">
         <v>147</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="14.25">
+        <v>12</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="14.25">
       <c r="A11" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B11" s="11">
         <v>161725</v>
@@ -1531,24 +1623,27 @@
         <v>-24.41</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G11" s="2">
         <v>148</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="14.25">
+        <v>12</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="14.25">
       <c r="A12" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B12" s="10">
         <v>600861</v>
@@ -1557,24 +1652,27 @@
         <v>-1311</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G12" s="6">
         <v>151</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="14.25">
+        <v>8</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="14.25" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B13" s="10">
         <v>836</v>
@@ -1583,24 +1681,27 @@
         <v>7792</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G13" s="6">
         <v>151</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="14.25">
+        <v>8</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="14.25">
       <c r="A14" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B14" s="10">
         <v>600879</v>
@@ -1609,24 +1710,27 @@
         <v>465</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G14" s="6">
         <v>151</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="14.25">
+        <v>8</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="14.25">
       <c r="A15" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B15" s="10">
         <v>17</v>
@@ -1635,24 +1739,27 @@
         <v>328</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G15" s="6">
         <v>151</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="14.25">
+        <v>8</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="14.25">
       <c r="A16" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B16" s="10">
         <v>601939</v>
@@ -1661,24 +1768,27 @@
         <v>-470</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G16" s="6">
         <v>151</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="14.25">
+        <v>8</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="14.25">
       <c r="A17" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B17" s="10">
         <v>428</v>
@@ -1687,24 +1797,27 @@
         <v>-1424</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G17" s="6">
         <v>151</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="14.25">
+        <v>8</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="14.25">
       <c r="A18" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B18" s="10">
         <v>600857</v>
@@ -1713,24 +1826,27 @@
         <v>-10376</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G18" s="6">
         <v>151</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="14.25">
+        <v>8</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="14.25">
       <c r="A19" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B19" s="10">
         <v>159920</v>
@@ -1739,24 +1855,27 @@
         <v>4503.42</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G19" s="13">
         <v>211</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="14.25">
+        <v>8</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="14.25">
       <c r="A20" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B20" s="10">
         <v>510900</v>
@@ -1765,24 +1884,27 @@
         <v>12037.26</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G20" s="6">
         <v>212</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="14.25">
+        <v>8</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="14.25">
       <c r="A21" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B21" s="11">
         <v>179</v>
@@ -1791,24 +1913,27 @@
         <v>-9.15</v>
       </c>
       <c r="D21" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="F21" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="G21" s="2">
         <v>314</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="14.25">
+        <v>12</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="14.25">
       <c r="A22" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B22" s="10">
         <v>204001</v>
@@ -1817,24 +1942,27 @@
         <v>241.61</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G22" s="6">
         <v>411</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="14.25">
+        <v>8</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="14.25">
       <c r="A23" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B23" s="10">
         <v>204007</v>
@@ -1843,24 +1971,27 @@
         <v>335</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G23" s="6">
         <v>411</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="14.25">
+        <v>8</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="14.25">
       <c r="A24" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B24" s="10">
         <v>131810</v>
@@ -1869,24 +2000,27 @@
         <v>204.94</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G24" s="6">
         <v>411</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="14.25">
+        <v>8</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="14.25">
       <c r="A25" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B25" s="10">
         <v>131800</v>
@@ -1895,24 +2029,27 @@
         <v>11.33</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G25" s="6">
         <v>411</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="16.5" customHeight="1">
+        <v>8</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="16.5" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B26" s="10">
         <v>511010</v>
@@ -1921,24 +2058,27 @@
         <v>1049.9000000000001</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G26" s="6">
         <v>411</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="16.5" customHeight="1">
+        <v>8</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="16.5" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B27" s="11">
         <v>3376</v>
@@ -1947,24 +2087,27 @@
         <v>948.08</v>
       </c>
       <c r="D27" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E27" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="F27" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G27" s="2">
         <v>411</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="14.25">
+        <v>12</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="14.25">
       <c r="A28" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B28" s="11">
         <v>1061</v>
@@ -1973,24 +2116,27 @@
         <v>1254.8800000000001</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E28" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F28" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="G28" s="3">
         <v>421</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="14.25">
+        <v>12</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="14.25">
       <c r="A29" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B29" s="10">
         <v>518880</v>
@@ -1999,50 +2145,56 @@
         <v>-369</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G29" s="13">
         <v>511</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="14.25">
+        <v>8</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="14.25">
       <c r="A30" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B30" s="11">
-        <v>999980</v>
+        <v>999979</v>
       </c>
       <c r="C30" s="4">
         <v>1251.27</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G30" s="2">
         <v>512</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="14.25" customHeight="1">
+        <v>21</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="14.25" customHeight="1">
       <c r="A31" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B31" s="10">
         <v>162411</v>
@@ -2051,24 +2203,27 @@
         <v>6232.74</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G31" s="13">
         <v>513</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="14.25">
+        <v>8</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="14.25">
       <c r="A32" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B32" s="10">
         <v>501018</v>
@@ -2077,288 +2232,321 @@
         <v>202.82</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G32" s="13">
         <v>513</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="14.25">
+        <v>8</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="14.25">
       <c r="A33" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" s="11">
+        <v>999998</v>
+      </c>
+      <c r="C33" s="4">
+        <v>73772.44</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B33" s="11">
+      <c r="E33" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G33" s="2">
+        <v>998</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I33" s="16" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="14.25" customHeight="1">
+      <c r="A34" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" s="11">
+        <v>999998</v>
+      </c>
+      <c r="C34" s="4">
+        <v>12928.46</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G34" s="2">
+        <v>998</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="14.25" customHeight="1">
+      <c r="A35" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B35" s="11">
         <v>999999</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C35" s="4">
+        <v>5137.66</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G35" s="2">
+        <v>999</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I35" s="16" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="14.25" customHeight="1">
+      <c r="A36" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B36" s="11">
+        <v>999999</v>
+      </c>
+      <c r="C36" s="4">
+        <v>1810.54</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G36" s="2">
+        <v>999</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I36" s="16" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="14.25" customHeight="1">
+      <c r="A37" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B37" s="11">
+        <v>999999</v>
+      </c>
+      <c r="C37" s="4">
+        <v>29830.12</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G37" s="2">
+        <v>999</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I37" s="16" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="14.25">
+      <c r="A38" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B38" s="11">
+        <v>999999</v>
+      </c>
+      <c r="C38" s="4">
         <v>2771.85</v>
       </c>
-      <c r="D33" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E33" s="2" t="s">
+      <c r="D38" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F38" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="F33" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="G33" s="2">
+      <c r="G38" s="2">
         <v>999</v>
       </c>
-      <c r="H33" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A34" s="1" t="s">
+      <c r="H38" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="14.25" customHeight="1">
+      <c r="A39" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B39" s="10">
+        <v>511990</v>
+      </c>
+      <c r="C39" s="12">
+        <v>1831.37</v>
+      </c>
+      <c r="D39" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B34" s="11">
-        <v>999999</v>
-      </c>
-      <c r="C34" s="4">
-        <v>5137.66</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E34" s="2" t="s">
+      <c r="E39" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F39" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="F34" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="G34" s="2">
+      <c r="G39" s="6">
         <v>999</v>
       </c>
-      <c r="H34" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="14.25">
-      <c r="A35" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B35" s="10">
-        <v>511990</v>
-      </c>
-      <c r="C35" s="12">
-        <v>1831.37</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E35" s="6" t="s">
+      <c r="H39" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I39" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="14.25">
+      <c r="A40" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B40" s="10">
+        <v>940018</v>
+      </c>
+      <c r="C40" s="12">
+        <v>380.43</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F40" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="F35" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="G35" s="6">
+      <c r="G40" s="6">
         <v>999</v>
       </c>
-      <c r="H35" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="14.25">
-      <c r="A36" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B36" s="10">
-        <v>940018</v>
-      </c>
-      <c r="C36" s="12">
-        <v>380.43</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="G36" s="6">
-        <v>999</v>
-      </c>
-      <c r="H36" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="14.25">
-      <c r="A37" s="9" t="str">
+      <c r="H40" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I40" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="14.25">
+      <c r="A41" s="9" t="str">
         <f>"现金添富"</f>
         <v>现金添富</v>
       </c>
-      <c r="B37" s="10" t="str">
+      <c r="B41" s="10" t="str">
         <f>"511980"</f>
         <v>511980</v>
       </c>
-      <c r="C37" s="12">
+      <c r="C41" s="12">
         <v>17.25</v>
       </c>
-      <c r="D37" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E37" s="6" t="s">
+      <c r="D41" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F41" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="F37" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="G37" s="6">
+      <c r="G41" s="6">
         <v>999</v>
       </c>
-      <c r="H37" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="14.25">
-      <c r="A38" s="9" t="str">
+      <c r="H41" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I41" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="14.25" customHeight="1">
+      <c r="A42" s="9" t="str">
         <f>"银华日利"</f>
         <v>银华日利</v>
       </c>
-      <c r="B38" s="10" t="str">
+      <c r="B42" s="10" t="str">
         <f>"511880"</f>
         <v>511880</v>
       </c>
-      <c r="C38" s="12">
+      <c r="C42" s="12">
         <v>12303.4</v>
       </c>
-      <c r="D38" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E38" s="6" t="s">
+      <c r="D42" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F42" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="F38" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="G38" s="6">
+      <c r="G42" s="6">
         <v>999</v>
       </c>
-      <c r="H38" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A39" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B39" s="11">
-        <v>999999</v>
-      </c>
-      <c r="C39" s="4">
-        <v>12928.46</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="G39" s="2">
-        <v>999</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="14.25">
-      <c r="A40" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B40" s="11">
-        <v>999999</v>
-      </c>
-      <c r="C40" s="4">
-        <v>1810.54</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="G40" s="2">
-        <v>999</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="14.25">
-      <c r="A41" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B41" s="11">
-        <v>999999</v>
-      </c>
-      <c r="C41" s="4">
-        <v>73772.44</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="G41" s="2">
-        <v>999</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A42" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B42" s="11">
-        <v>999999</v>
-      </c>
-      <c r="C42" s="4">
-        <v>29830.12</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="G42" s="2">
-        <v>999</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="14.25">
+      <c r="H42" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I42" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="14.25">
       <c r="A43" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B43" s="11">
         <v>999999</v>
@@ -2367,24 +2555,27 @@
         <v>5674.89</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E43" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F43" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>85</v>
       </c>
       <c r="G43" s="2">
         <v>999</v>
       </c>
       <c r="H43" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A44" s="1" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A44" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="B44" s="11">
         <v>999999</v>
@@ -2393,23 +2584,26 @@
         <v>787.97</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E44" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F44" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>85</v>
       </c>
       <c r="G44" s="2">
         <v>999</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:H44">
+  <sortState ref="A2:I45">
     <sortCondition ref="G1"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/scripts/src/config/历史交易盈亏.xlsx
+++ b/scripts/src/config/历史交易盈亏.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\finance-data\Scripts\src\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88F34C46-0E7C-4C17-8B8B-B9BD3AA7F069}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41865FF4-91D1-4241-A62A-95F1B9EF624B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8475" yWindow="2340" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="历史交易盈亏" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">历史交易盈亏!$A$1:$H$44</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">历史交易盈亏!$A$1:$H$43</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
     <author>kangliquan</author>
   </authors>
   <commentList>
-    <comment ref="C40" authorId="0" shapeId="0" xr:uid="{3E505844-047B-46FE-95CA-F4C7CE10ED82}">
+    <comment ref="C39" authorId="0" shapeId="0" xr:uid="{3E505844-047B-46FE-95CA-F4C7CE10ED82}">
       <text>
         <r>
           <rPr>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="93">
   <si>
     <t>基金代码</t>
   </si>
@@ -101,15 +101,6 @@
   </si>
   <si>
     <t>国内债券</t>
-  </si>
-  <si>
-    <t>华夏收益债券(QDII)A</t>
-  </si>
-  <si>
-    <t>海外债券</t>
-  </si>
-  <si>
-    <t>美元债</t>
   </si>
   <si>
     <t>广发中债7-10年国开债指数A</t>
@@ -854,10 +845,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="000000"/>
     <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="10">
     <font>
@@ -960,13 +950,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="177" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -1304,10 +1291,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFB6DA6C-0982-42D1-A4BB-A258CDFBC523}">
-  <dimension ref="A1:I44"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1323,274 +1310,274 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="16.5">
-      <c r="A1" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B1" s="8" t="s">
+      <c r="A1" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1" s="8" t="s">
+      <c r="C1" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="H1" s="8" t="s">
+      <c r="G1" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="H1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="8" t="s">
-        <v>93</v>
+      <c r="I1" s="7" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="14.25">
-      <c r="A2" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="10">
+      <c r="A2" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="9">
         <v>510050</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="11">
         <v>183.3</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="G2" s="6">
+      <c r="E2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="5">
         <v>111</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="6" t="s">
-        <v>94</v>
+      <c r="I2" s="5" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A3" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" s="10">
+      <c r="A3" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="9">
         <v>510300</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="11">
         <v>453.1</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" s="6">
+      <c r="E3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="5">
         <v>113</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="6" t="s">
-        <v>94</v>
+      <c r="I3" s="5" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.25">
-      <c r="A4" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="10">
+      <c r="A4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="9">
         <v>159902</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="6">
         <v>189.3</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="F4" s="6" t="s">
+      <c r="E4" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G4" s="5">
+        <v>117</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="14.25" customHeight="1">
+      <c r="A5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="9">
+        <v>510500</v>
+      </c>
+      <c r="C5" s="6">
+        <v>3809.67</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="5">
+        <v>121</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="14.25">
+      <c r="A6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="9">
+        <v>512100</v>
+      </c>
+      <c r="C6" s="6">
+        <v>-5258.97</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="G4" s="6">
-        <v>117</v>
-      </c>
-      <c r="H4" s="6" t="s">
+      <c r="G6" s="5">
+        <v>123</v>
+      </c>
+      <c r="H6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="10">
-        <v>510500</v>
-      </c>
-      <c r="C5" s="7">
-        <v>3809.67</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="6">
-        <v>121</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="14.25">
-      <c r="A6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="10">
-        <v>512100</v>
-      </c>
-      <c r="C6" s="7">
-        <v>-5258.97</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="G6" s="6">
-        <v>123</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>94</v>
+      <c r="I6" s="5" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="14.25" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B7" s="11">
+        <v>85</v>
+      </c>
+      <c r="B7" s="10">
         <v>3765</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>61.68</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G7" s="2">
         <v>124</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="I7" s="16" t="s">
-        <v>95</v>
+        <v>84</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="14.25" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B8" s="11">
+        <v>86</v>
+      </c>
+      <c r="B8" s="10">
         <v>110026</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>1866.02</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G8" s="2">
         <v>124</v>
       </c>
-      <c r="H8" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="I8" s="14" t="s">
-        <v>94</v>
+      <c r="H8" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="14.25">
       <c r="A9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="11">
+        <v>20</v>
+      </c>
+      <c r="B9" s="10">
         <v>110022</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>221.28</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G9" s="2">
         <v>147</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="I9" s="16" t="s">
-        <v>95</v>
+        <v>84</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="14.25">
       <c r="A10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="11">
+        <v>20</v>
+      </c>
+      <c r="B10" s="10">
         <v>110022</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>3540.4400000000005</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -1600,7 +1587,7 @@
         <v>7</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G10" s="2">
         <v>147</v>
@@ -1609,27 +1596,27 @@
         <v>12</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="14.25">
       <c r="A11" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B11" s="11">
+        <v>63</v>
+      </c>
+      <c r="B11" s="10">
         <v>161725</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>-24.41</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G11" s="2">
         <v>148</v>
@@ -1638,288 +1625,288 @@
         <v>12</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="14.25">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" s="9">
+        <v>600861</v>
+      </c>
+      <c r="C12" s="11">
+        <v>-1311</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G12" s="5">
+        <v>151</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="14.25" customHeight="1">
+      <c r="A13" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" s="9">
+        <v>836</v>
+      </c>
+      <c r="C13" s="11">
+        <v>7792</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" s="5">
+        <v>151</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="14.25">
+      <c r="A14" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B12" s="10">
-        <v>600861</v>
-      </c>
-      <c r="C12" s="12">
-        <v>-1311</v>
-      </c>
-      <c r="D12" s="6" t="s">
+      <c r="B14" s="9">
+        <v>600879</v>
+      </c>
+      <c r="C14" s="11">
+        <v>465</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G14" s="5">
+        <v>151</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="14.25">
+      <c r="A15" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="E12" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="G12" s="6">
+      <c r="B15" s="9">
+        <v>17</v>
+      </c>
+      <c r="C15" s="11">
+        <v>328</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G15" s="5">
         <v>151</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="H15" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I12" s="6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A13" s="9" t="s">
+      <c r="I15" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="14.25">
+      <c r="A16" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="B13" s="10">
-        <v>836</v>
-      </c>
-      <c r="C13" s="12">
-        <v>7792</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="G13" s="6">
+      <c r="B16" s="9">
+        <v>601939</v>
+      </c>
+      <c r="C16" s="11">
+        <v>-470</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G16" s="5">
         <v>151</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="H16" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I13" s="6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="14.25">
-      <c r="A14" s="9" t="s">
+      <c r="I16" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="14.25">
+      <c r="A17" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="B14" s="10">
-        <v>600879</v>
-      </c>
-      <c r="C14" s="12">
-        <v>465</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="G14" s="6">
+      <c r="B17" s="9">
+        <v>428</v>
+      </c>
+      <c r="C17" s="11">
+        <v>-1424</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G17" s="5">
         <v>151</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="H17" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="14.25">
-      <c r="A15" s="9" t="s">
+      <c r="I17" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="14.25">
+      <c r="A18" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="B15" s="10">
-        <v>17</v>
-      </c>
-      <c r="C15" s="12">
-        <v>328</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="G15" s="6">
+      <c r="B18" s="9">
+        <v>600857</v>
+      </c>
+      <c r="C18" s="11">
+        <v>-10376</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G18" s="5">
         <v>151</v>
       </c>
-      <c r="H15" s="6" t="s">
+      <c r="H18" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I15" s="6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="14.25">
-      <c r="A16" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="B16" s="10">
-        <v>601939</v>
-      </c>
-      <c r="C16" s="12">
-        <v>-470</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="G16" s="6">
-        <v>151</v>
-      </c>
-      <c r="H16" s="6" t="s">
+      <c r="I18" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="14.25">
+      <c r="A19" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="9">
+        <v>159920</v>
+      </c>
+      <c r="C19" s="11">
+        <v>4503.42</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G19" s="12">
+        <v>211</v>
+      </c>
+      <c r="H19" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I16" s="6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="14.25">
-      <c r="A17" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="B17" s="10">
-        <v>428</v>
-      </c>
-      <c r="C17" s="12">
-        <v>-1424</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="G17" s="6">
-        <v>151</v>
-      </c>
-      <c r="H17" s="6" t="s">
+      <c r="I19" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="14.25">
+      <c r="A20" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="9">
+        <v>510900</v>
+      </c>
+      <c r="C20" s="11">
+        <v>12037.26</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G20" s="5">
+        <v>212</v>
+      </c>
+      <c r="H20" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I17" s="6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="14.25">
-      <c r="A18" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="B18" s="10">
-        <v>600857</v>
-      </c>
-      <c r="C18" s="12">
-        <v>-10376</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="G18" s="6">
-        <v>151</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I18" s="6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="14.25">
-      <c r="A19" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B19" s="10">
-        <v>159920</v>
-      </c>
-      <c r="C19" s="12">
-        <v>4503.42</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="G19" s="13">
-        <v>211</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I19" s="6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="14.25">
-      <c r="A20" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B20" s="10">
-        <v>510900</v>
-      </c>
-      <c r="C20" s="12">
-        <v>12037.26</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="G20" s="6">
-        <v>212</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>94</v>
+      <c r="I20" s="5" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="14.25">
       <c r="A21" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" s="10">
+        <v>179</v>
+      </c>
+      <c r="C21" s="3">
+        <v>-9.15</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="B21" s="11">
-        <v>179</v>
-      </c>
-      <c r="C21" s="4">
-        <v>-9.15</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="G21" s="2">
         <v>314</v>
@@ -1928,162 +1915,162 @@
         <v>12</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="14.25">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="9">
+        <v>204001</v>
+      </c>
+      <c r="C22" s="11">
+        <v>241.61</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G22" s="5">
+        <v>411</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="14.25">
+      <c r="A23" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="9">
+        <v>204007</v>
+      </c>
+      <c r="C23" s="11">
+        <v>335</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G23" s="5">
+        <v>411</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="14.25">
+      <c r="A24" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="10">
-        <v>204001</v>
-      </c>
-      <c r="C22" s="12">
-        <v>241.61</v>
-      </c>
-      <c r="D22" s="6" t="s">
+      <c r="B24" s="9">
+        <v>131810</v>
+      </c>
+      <c r="C24" s="11">
+        <v>204.94</v>
+      </c>
+      <c r="D24" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E22" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="G22" s="6">
+      <c r="E24" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G24" s="5">
         <v>411</v>
       </c>
-      <c r="H22" s="6" t="s">
+      <c r="H24" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I22" s="6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="14.25">
-      <c r="A23" s="9" t="s">
+      <c r="I24" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="14.25">
+      <c r="A25" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="10">
-        <v>204007</v>
-      </c>
-      <c r="C23" s="12">
-        <v>335</v>
-      </c>
-      <c r="D23" s="6" t="s">
+      <c r="B25" s="9">
+        <v>131800</v>
+      </c>
+      <c r="C25" s="11">
+        <v>11.33</v>
+      </c>
+      <c r="D25" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E23" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="G23" s="6">
+      <c r="E25" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G25" s="5">
         <v>411</v>
       </c>
-      <c r="H23" s="6" t="s">
+      <c r="H25" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I23" s="6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="14.25">
-      <c r="A24" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B24" s="10">
-        <v>131810</v>
-      </c>
-      <c r="C24" s="12">
-        <v>204.94</v>
-      </c>
-      <c r="D24" s="6" t="s">
+      <c r="I25" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A26" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="9">
+        <v>511010</v>
+      </c>
+      <c r="C26" s="11">
+        <v>1049.9000000000001</v>
+      </c>
+      <c r="D26" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E24" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="G24" s="6">
+      <c r="E26" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G26" s="5">
         <v>411</v>
       </c>
-      <c r="H24" s="6" t="s">
+      <c r="H26" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I24" s="6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="14.25">
-      <c r="A25" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B25" s="10">
-        <v>131800</v>
-      </c>
-      <c r="C25" s="12">
-        <v>11.33</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="G25" s="6">
-        <v>411</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I25" s="6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A26" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B26" s="10">
-        <v>511010</v>
-      </c>
-      <c r="C26" s="12">
-        <v>1049.9000000000001</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="G26" s="6">
-        <v>411</v>
-      </c>
-      <c r="H26" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I26" s="6" t="s">
-        <v>94</v>
+      <c r="I26" s="5" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B27" s="11">
+        <v>15</v>
+      </c>
+      <c r="B27" s="10">
         <v>3376</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="3">
         <v>948.08</v>
       </c>
       <c r="D27" s="2" t="s">
@@ -2093,7 +2080,7 @@
         <v>14</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G27" s="2">
         <v>411</v>
@@ -2102,508 +2089,479 @@
         <v>12</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="14.25">
-      <c r="A28" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B28" s="11">
-        <v>1061</v>
-      </c>
-      <c r="C28" s="4">
-        <v>1254.8800000000001</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F28" s="2" t="s">
+      <c r="A28" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="9">
+        <v>518880</v>
+      </c>
+      <c r="C28" s="11">
+        <v>-369</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G28" s="12">
+        <v>511</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="14.25">
+      <c r="A29" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" s="10">
+        <v>999979</v>
+      </c>
+      <c r="C29" s="3">
+        <v>1251.27</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G28" s="3">
-        <v>421</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="14.25">
-      <c r="A29" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B29" s="10">
-        <v>518880</v>
-      </c>
-      <c r="C29" s="12">
-        <v>-369</v>
-      </c>
-      <c r="D29" s="6" t="s">
+      <c r="G29" s="2">
+        <v>512</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="14.25" customHeight="1">
+      <c r="A30" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30" s="9">
+        <v>162411</v>
+      </c>
+      <c r="C30" s="11">
+        <v>6232.74</v>
+      </c>
+      <c r="D30" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E29" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="G29" s="13">
-        <v>511</v>
-      </c>
-      <c r="H29" s="6" t="s">
+      <c r="E30" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G30" s="12">
+        <v>513</v>
+      </c>
+      <c r="H30" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="14.25">
-      <c r="A30" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B30" s="11">
-        <v>999979</v>
-      </c>
-      <c r="C30" s="4">
-        <v>1251.27</v>
-      </c>
-      <c r="D30" s="2" t="s">
+      <c r="I30" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="14.25">
+      <c r="A31" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B31" s="9">
+        <v>501018</v>
+      </c>
+      <c r="C31" s="11">
+        <v>202.82</v>
+      </c>
+      <c r="D31" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E30" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G30" s="2">
-        <v>512</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A31" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B31" s="10">
-        <v>162411</v>
-      </c>
-      <c r="C31" s="12">
-        <v>6232.74</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="G31" s="13">
+      <c r="E31" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G31" s="12">
         <v>513</v>
       </c>
-      <c r="H31" s="6" t="s">
+      <c r="H31" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I31" s="6" t="s">
-        <v>94</v>
+      <c r="I31" s="5" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="14.25">
-      <c r="A32" s="9" t="s">
-        <v>52</v>
+      <c r="A32" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="B32" s="10">
-        <v>501018</v>
-      </c>
-      <c r="C32" s="12">
-        <v>202.82</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="G32" s="13">
-        <v>513</v>
-      </c>
-      <c r="H32" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I32" s="6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="14.25">
+        <v>999998</v>
+      </c>
+      <c r="C32" s="3">
+        <v>73772.44</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G32" s="2">
+        <v>998</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I32" s="15" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="14.25" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B33" s="11">
+        <v>31</v>
+      </c>
+      <c r="B33" s="10">
         <v>999998</v>
       </c>
-      <c r="C33" s="4">
-        <v>73772.44</v>
+      <c r="C33" s="3">
+        <v>12928.46</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G33" s="2">
         <v>998</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="I33" s="16" t="s">
-        <v>95</v>
+        <v>31</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="14.25" customHeight="1">
       <c r="A34" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34" s="11">
-        <v>999998</v>
-      </c>
-      <c r="C34" s="4">
-        <v>12928.46</v>
+        <v>24</v>
+      </c>
+      <c r="B34" s="10">
+        <v>999999</v>
+      </c>
+      <c r="C34" s="3">
+        <v>5137.66</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="G34" s="2">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>94</v>
+        <v>29</v>
+      </c>
+      <c r="I34" s="15" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="14.25" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B35" s="11">
+        <v>24</v>
+      </c>
+      <c r="B35" s="10">
         <v>999999</v>
       </c>
-      <c r="C35" s="4">
-        <v>5137.66</v>
+      <c r="C35" s="3">
+        <v>1810.54</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G35" s="2">
         <v>999</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I35" s="16" t="s">
-        <v>95</v>
+        <v>34</v>
+      </c>
+      <c r="I35" s="15" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="14.25" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B36" s="11">
+        <v>24</v>
+      </c>
+      <c r="B36" s="10">
         <v>999999</v>
       </c>
-      <c r="C36" s="4">
-        <v>1810.54</v>
+      <c r="C36" s="3">
+        <v>29830.12</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G36" s="2">
         <v>999</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I36" s="16" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="14.25" customHeight="1">
+        <v>28</v>
+      </c>
+      <c r="I36" s="15" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="14.25">
       <c r="A37" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B37" s="11">
+        <v>24</v>
+      </c>
+      <c r="B37" s="10">
         <v>999999</v>
       </c>
-      <c r="C37" s="4">
-        <v>29830.12</v>
+      <c r="C37" s="3">
+        <v>2771.85</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G37" s="2">
         <v>999</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I37" s="16" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="14.25">
-      <c r="A38" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B38" s="11">
-        <v>999999</v>
-      </c>
-      <c r="C38" s="4">
-        <v>2771.85</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="G38" s="2">
+        <v>33</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="14.25" customHeight="1">
+      <c r="A38" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38" s="9">
+        <v>511990</v>
+      </c>
+      <c r="C38" s="11">
+        <v>1831.37</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G38" s="5">
         <v>999</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A39" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B39" s="10">
-        <v>511990</v>
-      </c>
-      <c r="C39" s="12">
-        <v>1831.37</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="F39" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="G39" s="6">
+      <c r="H38" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="14.25">
+      <c r="A39" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B39" s="9">
+        <v>940018</v>
+      </c>
+      <c r="C39" s="11">
+        <v>380.43</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G39" s="5">
         <v>999</v>
       </c>
-      <c r="H39" s="6" t="s">
+      <c r="H39" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I39" s="6" t="s">
-        <v>94</v>
+      <c r="I39" s="5" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="14.25">
-      <c r="A40" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B40" s="10">
-        <v>940018</v>
-      </c>
-      <c r="C40" s="12">
-        <v>380.43</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="F40" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="G40" s="6">
-        <v>999</v>
-      </c>
-      <c r="H40" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I40" s="6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="14.25">
-      <c r="A41" s="9" t="str">
+      <c r="A40" s="8" t="str">
         <f>"现金添富"</f>
         <v>现金添富</v>
       </c>
-      <c r="B41" s="10" t="str">
+      <c r="B40" s="9" t="str">
         <f>"511980"</f>
         <v>511980</v>
       </c>
-      <c r="C41" s="12">
+      <c r="C40" s="11">
         <v>17.25</v>
       </c>
-      <c r="D41" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="F41" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="G41" s="6">
+      <c r="D40" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G40" s="5">
         <v>999</v>
       </c>
-      <c r="H41" s="6" t="s">
+      <c r="H40" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I41" s="6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A42" s="9" t="str">
+      <c r="I40" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="14.25" customHeight="1">
+      <c r="A41" s="8" t="str">
         <f>"银华日利"</f>
         <v>银华日利</v>
       </c>
-      <c r="B42" s="10" t="str">
+      <c r="B41" s="9" t="str">
         <f>"511880"</f>
         <v>511880</v>
       </c>
-      <c r="C42" s="12">
+      <c r="C41" s="11">
         <v>12303.4</v>
       </c>
-      <c r="D42" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="F42" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="G42" s="6">
+      <c r="D41" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G41" s="5">
         <v>999</v>
       </c>
-      <c r="H42" s="6" t="s">
+      <c r="H41" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I42" s="6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="14.25">
+      <c r="I41" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="14.25">
+      <c r="A42" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B42" s="10">
+        <v>999999</v>
+      </c>
+      <c r="C42" s="3">
+        <v>5674.89</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G42" s="2">
+        <v>999</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="16.5" customHeight="1">
       <c r="A43" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B43" s="11">
+        <v>24</v>
+      </c>
+      <c r="B43" s="10">
         <v>999999</v>
       </c>
-      <c r="C43" s="4">
-        <v>5674.89</v>
+      <c r="C43" s="3">
+        <v>787.97</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G43" s="2">
         <v>999</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A44" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B44" s="11">
-        <v>999999</v>
-      </c>
-      <c r="C44" s="4">
-        <v>787.97</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="G44" s="2">
-        <v>999</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="I44" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:I45">
+  <sortState ref="A2:I44">
     <sortCondition ref="G1"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/scripts/src/config/历史交易盈亏.xlsx
+++ b/scripts/src/config/历史交易盈亏.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\finance-data\Scripts\src\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41865FF4-91D1-4241-A62A-95F1B9EF624B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD04EA38-6004-4724-806C-AD91E0CDADAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="26085" yWindow="4515" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="历史交易盈亏" sheetId="3" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="92">
   <si>
     <t>基金代码</t>
   </si>
@@ -695,9 +695,6 @@
   </si>
   <si>
     <t>货币基金</t>
-  </si>
-  <si>
-    <t>白酒</t>
   </si>
   <si>
     <t>全指消费</t>
@@ -1293,8 +1290,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFB6DA6C-0982-42D1-A4BB-A258CDFBC523}">
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1329,13 +1326,13 @@
         <v>3</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>4</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="14.25">
@@ -1364,7 +1361,7 @@
         <v>8</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="14.25" customHeight="1">
@@ -1393,7 +1390,7 @@
         <v>8</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.25">
@@ -1422,7 +1419,7 @@
         <v>8</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="14.25" customHeight="1">
@@ -1451,7 +1448,7 @@
         <v>8</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="14.25">
@@ -1480,12 +1477,12 @@
         <v>8</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="14.25" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B7" s="10">
         <v>3765</v>
@@ -1506,15 +1503,15 @@
         <v>124</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I7" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="14.25" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B8" s="10">
         <v>110026</v>
@@ -1538,7 +1535,7 @@
         <v>23</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="14.25">
@@ -1558,16 +1555,16 @@
         <v>7</v>
       </c>
       <c r="F9" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G9" s="2">
+        <v>148</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="G9" s="2">
-        <v>147</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="I9" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="14.25">
@@ -1590,13 +1587,13 @@
         <v>21</v>
       </c>
       <c r="G10" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>12</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="14.25">
@@ -1616,7 +1613,7 @@
         <v>7</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="G11" s="2">
         <v>148</v>
@@ -1625,7 +1622,7 @@
         <v>12</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="14.25">
@@ -1654,7 +1651,7 @@
         <v>8</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="14.25" customHeight="1">
@@ -1683,7 +1680,7 @@
         <v>8</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="14.25">
@@ -1712,7 +1709,7 @@
         <v>8</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="14.25">
@@ -1741,7 +1738,7 @@
         <v>8</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="14.25">
@@ -1770,7 +1767,7 @@
         <v>8</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="14.25">
@@ -1799,7 +1796,7 @@
         <v>8</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="14.25">
@@ -1828,7 +1825,7 @@
         <v>8</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="14.25">
@@ -1857,7 +1854,7 @@
         <v>8</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="14.25">
@@ -1886,7 +1883,7 @@
         <v>8</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="14.25">
@@ -1915,7 +1912,7 @@
         <v>12</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="14.25">
@@ -1944,7 +1941,7 @@
         <v>8</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="14.25">
@@ -1973,7 +1970,7 @@
         <v>8</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="14.25">
@@ -2002,7 +1999,7 @@
         <v>8</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="14.25">
@@ -2031,7 +2028,7 @@
         <v>8</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" customHeight="1">
@@ -2060,7 +2057,7 @@
         <v>8</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" customHeight="1">
@@ -2089,7 +2086,7 @@
         <v>12</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="14.25">
@@ -2118,7 +2115,7 @@
         <v>8</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="14.25">
@@ -2147,7 +2144,7 @@
         <v>18</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="14.25" customHeight="1">
@@ -2176,7 +2173,7 @@
         <v>8</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="14.25">
@@ -2205,7 +2202,7 @@
         <v>8</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="14.25">
@@ -2222,10 +2219,10 @@
         <v>25</v>
       </c>
       <c r="E32" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F32" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>88</v>
       </c>
       <c r="G32" s="2">
         <v>998</v>
@@ -2234,7 +2231,7 @@
         <v>32</v>
       </c>
       <c r="I32" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="14.25" customHeight="1">
@@ -2251,10 +2248,10 @@
         <v>25</v>
       </c>
       <c r="E33" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F33" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>88</v>
       </c>
       <c r="G33" s="2">
         <v>998</v>
@@ -2263,7 +2260,7 @@
         <v>31</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="14.25" customHeight="1">
@@ -2292,7 +2289,7 @@
         <v>29</v>
       </c>
       <c r="I34" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="14.25" customHeight="1">
@@ -2321,7 +2318,7 @@
         <v>34</v>
       </c>
       <c r="I35" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="14.25" customHeight="1">
@@ -2350,7 +2347,7 @@
         <v>28</v>
       </c>
       <c r="I36" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="14.25">
@@ -2379,7 +2376,7 @@
         <v>33</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="14.25" customHeight="1">
@@ -2408,7 +2405,7 @@
         <v>8</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="14.25">
@@ -2437,7 +2434,7 @@
         <v>8</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="14.25">
@@ -2468,7 +2465,7 @@
         <v>8</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="14.25" customHeight="1">
@@ -2499,7 +2496,7 @@
         <v>8</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="14.25">
@@ -2528,7 +2525,7 @@
         <v>23</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="16.5" customHeight="1">
@@ -2557,7 +2554,7 @@
         <v>61</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/scripts/src/config/历史交易盈亏.xlsx
+++ b/scripts/src/config/历史交易盈亏.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\finance-data\Scripts\src\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD04EA38-6004-4724-806C-AD91E0CDADAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{310F6C63-D773-4ED7-9B9B-5DC210681091}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26085" yWindow="4515" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9600" yWindow="3375" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="历史交易盈亏" sheetId="3" r:id="rId1"/>
@@ -1291,7 +1291,7 @@
   <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1935,7 +1935,7 @@
         <v>58</v>
       </c>
       <c r="G22" s="5">
-        <v>411</v>
+        <v>511</v>
       </c>
       <c r="H22" s="5" t="s">
         <v>8</v>
@@ -1964,7 +1964,7 @@
         <v>58</v>
       </c>
       <c r="G23" s="5">
-        <v>411</v>
+        <v>511</v>
       </c>
       <c r="H23" s="5" t="s">
         <v>8</v>
@@ -1993,7 +1993,7 @@
         <v>58</v>
       </c>
       <c r="G24" s="5">
-        <v>411</v>
+        <v>511</v>
       </c>
       <c r="H24" s="5" t="s">
         <v>8</v>
@@ -2022,7 +2022,7 @@
         <v>58</v>
       </c>
       <c r="G25" s="5">
-        <v>411</v>
+        <v>511</v>
       </c>
       <c r="H25" s="5" t="s">
         <v>8</v>
@@ -2051,7 +2051,7 @@
         <v>58</v>
       </c>
       <c r="G26" s="5">
-        <v>411</v>
+        <v>511</v>
       </c>
       <c r="H26" s="5" t="s">
         <v>8</v>
@@ -2080,7 +2080,7 @@
         <v>26</v>
       </c>
       <c r="G27" s="2">
-        <v>411</v>
+        <v>511</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>12</v>
@@ -2109,7 +2109,7 @@
         <v>59</v>
       </c>
       <c r="G28" s="12">
-        <v>511</v>
+        <v>611</v>
       </c>
       <c r="H28" s="5" t="s">
         <v>8</v>
@@ -2138,7 +2138,7 @@
         <v>17</v>
       </c>
       <c r="G29" s="2">
-        <v>512</v>
+        <v>612</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>18</v>
@@ -2167,7 +2167,7 @@
         <v>60</v>
       </c>
       <c r="G30" s="12">
-        <v>513</v>
+        <v>613</v>
       </c>
       <c r="H30" s="5" t="s">
         <v>8</v>
@@ -2196,7 +2196,7 @@
         <v>60</v>
       </c>
       <c r="G31" s="12">
-        <v>513</v>
+        <v>613</v>
       </c>
       <c r="H31" s="5" t="s">
         <v>8</v>

--- a/scripts/src/config/历史交易盈亏.xlsx
+++ b/scripts/src/config/历史交易盈亏.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\finance-data\Scripts\src\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{310F6C63-D773-4ED7-9B9B-5DC210681091}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DE9AB32-AFC5-41DE-983E-95C949B143F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9600" yWindow="3375" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3900" yWindow="3900" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="历史交易盈亏" sheetId="3" r:id="rId1"/>
@@ -1291,7 +1291,7 @@
   <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1343,7 +1343,7 @@
         <v>510050</v>
       </c>
       <c r="C2" s="11">
-        <v>183.3</v>
+        <v>310.2</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>5</v>
@@ -1372,7 +1372,7 @@
         <v>510300</v>
       </c>
       <c r="C3" s="11">
-        <v>453.1</v>
+        <v>1017.3</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>5</v>

--- a/scripts/src/config/历史交易盈亏.xlsx
+++ b/scripts/src/config/历史交易盈亏.xlsx
@@ -1,32 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20353"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\finance-data\Scripts\src\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\finance-data\scripts\src\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DE9AB32-AFC5-41DE-983E-95C949B143F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81DD477A-5A15-4D05-9ED3-6332171B3553}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="3900" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3900" yWindow="3900" windowWidth="28800" windowHeight="15432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="历史交易盈亏" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">历史交易盈亏!$A$1:$H$43</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">历史交易盈亏!$A$1:$H$44</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -36,7 +28,7 @@
     <author>kangliquan</author>
   </authors>
   <commentList>
-    <comment ref="C39" authorId="0" shapeId="0" xr:uid="{3E505844-047B-46FE-95CA-F4C7CE10ED82}">
+    <comment ref="C40" authorId="0" shapeId="0" xr:uid="{3E505844-047B-46FE-95CA-F4C7CE10ED82}">
       <text>
         <r>
           <rPr>
@@ -56,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="94">
   <si>
     <t>基金代码</t>
   </si>
@@ -197,7 +189,614 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>母天天基金</t>
+      <t>累计盈亏</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>陆金所</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>百度理财</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300ETF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>沪深</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>300</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>上证</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>50</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50ETF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GC001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GC007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>股</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ETF</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R-001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R-003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>国债</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ETF</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>恒生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ETF</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>华宝添溢</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>华宝油气</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>黄金</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ETF</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>南方原油</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>天天发</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海外新兴</t>
+  </si>
+  <si>
+    <t>国内债券</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香港</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>基金名称</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>恒生</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>国企</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>纯债</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>黄金</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>原油</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>余额宝</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>股票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>招商中证白酒指数分级</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广发美国房地产指数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>海外成熟</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>美国</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>房地产</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京城乡</t>
+  </si>
+  <si>
+    <t>A 股</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鑫茂科技</t>
+  </si>
+  <si>
+    <t>航天电子</t>
+  </si>
+  <si>
+    <t>深中华A</t>
+  </si>
+  <si>
+    <t>建设银行</t>
+  </si>
+  <si>
+    <t>华天酒店</t>
+  </si>
+  <si>
+    <t>宁波中百</t>
+  </si>
+  <si>
+    <t>中小板</t>
+  </si>
+  <si>
+    <t>大盘股</t>
+  </si>
+  <si>
+    <t>创业板</t>
+  </si>
+  <si>
+    <t>中证1000</t>
+  </si>
+  <si>
+    <t>低风险理财</t>
+  </si>
+  <si>
+    <t>货币基金</t>
+  </si>
+  <si>
+    <t>全指消费</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>广发创业板</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ETF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>联接</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>易方达创业板</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ETF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>联接</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中风险理财</t>
+  </si>
+  <si>
+    <t>企业借贷</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分类</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ID</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>持有人</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>康力泉</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>父母</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天天基金母</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>陆金所</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>母</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -210,20 +809,17 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>父天天基金</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <rFont val="Microsoft YaHei"/>
+      <t>天天基金</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>累计盈亏</t>
+      <t>父</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -236,605 +832,30 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>陆金所</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <rFont val="宋体"/>
+      <t>百度理财</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>母陆金所</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>百度理财</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>母百度理财</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>300ETF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>沪深</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>300</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>上证</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>50</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50ETF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GC001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GC007</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>H</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>股</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>ETF</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R-001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R-003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>国债</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>ETF</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>恒生</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>ETF</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>华宝添溢</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>华宝油气</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>黄金</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>ETF</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>南方原油</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>天天发</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>海外新兴</t>
-  </si>
-  <si>
-    <t>国内债券</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>香港</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>基金名称</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>恒生</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>国企</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>纯债</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>黄金</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>原油</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>余额宝</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>股票</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>招商中证白酒指数分级</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广发美国房地产指数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>海外成熟</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>美国</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>房地产</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京城乡</t>
-  </si>
-  <si>
-    <t>A 股</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鑫茂科技</t>
-  </si>
-  <si>
-    <t>航天电子</t>
-  </si>
-  <si>
-    <t>深中华A</t>
-  </si>
-  <si>
-    <t>建设银行</t>
-  </si>
-  <si>
-    <t>华天酒店</t>
-  </si>
-  <si>
-    <t>宁波中百</t>
-  </si>
-  <si>
-    <t>中小板</t>
-  </si>
-  <si>
-    <t>大盘股</t>
-  </si>
-  <si>
-    <t>创业板</t>
-  </si>
-  <si>
-    <t>中证1000</t>
-  </si>
-  <si>
-    <t>低风险理财</t>
-  </si>
-  <si>
-    <t>货币基金</t>
-  </si>
-  <si>
-    <t>全指消费</t>
-  </si>
-  <si>
-    <t>母天天基金</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>广发创业板</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>ETF</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>联接</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>A</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>易方达创业板</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>ETF</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>联接</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>A</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中风险理财</t>
-  </si>
-  <si>
-    <t>企业借贷</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>分类</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>ID</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>持有人</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>康力泉</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>父母</t>
+      <t>母</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>史考特美股</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美国中概股</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -947,7 +968,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -984,6 +1005,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1288,33 +1318,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFB6DA6C-0982-42D1-A4BB-A258CDFBC523}">
-  <dimension ref="A1:I43"/>
+  <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="23.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.5">
+    <row r="1" spans="1:9" ht="15.6">
       <c r="A1" s="7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>1</v>
@@ -1326,18 +1357,18 @@
         <v>3</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>4</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="14.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B2" s="9">
         <v>510050</v>
@@ -1352,7 +1383,7 @@
         <v>27</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G2" s="5">
         <v>111</v>
@@ -1361,12 +1392,12 @@
         <v>8</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="14.25" customHeight="1">
       <c r="A3" s="8" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B3" s="9">
         <v>510300</v>
@@ -1381,7 +1412,7 @@
         <v>27</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G3" s="5">
         <v>113</v>
@@ -1390,10 +1421,10 @@
         <v>8</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="14.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="4" t="s">
         <v>22</v>
       </c>
@@ -1407,10 +1438,10 @@
         <v>5</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G4" s="5">
         <v>117</v>
@@ -1419,7 +1450,7 @@
         <v>8</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="14.25" customHeight="1">
@@ -1448,10 +1479,10 @@
         <v>8</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="14.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="4" t="s">
         <v>16</v>
       </c>
@@ -1468,7 +1499,7 @@
         <v>6</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G6" s="5">
         <v>123</v>
@@ -1477,12 +1508,12 @@
         <v>8</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="14.25" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B7" s="10">
         <v>3765</v>
@@ -1491,27 +1522,27 @@
         <v>61.68</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G7" s="2">
         <v>124</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>83</v>
+      <c r="H7" s="13" t="s">
+        <v>87</v>
       </c>
       <c r="I7" s="15" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="14.25" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B8" s="10">
         <v>110026</v>
@@ -1520,13 +1551,13 @@
         <v>1866.02</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G8" s="2">
         <v>124</v>
@@ -1535,10 +1566,10 @@
         <v>23</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="14.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15.6">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
@@ -1549,25 +1580,25 @@
         <v>221.28</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G9" s="2">
         <v>148</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>83</v>
+      <c r="H9" s="13" t="s">
+        <v>87</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="14.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -1593,12 +1624,12 @@
         <v>12</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="14.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B11" s="10">
         <v>161725</v>
@@ -1607,7 +1638,7 @@
         <v>-24.41</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>7</v>
@@ -1622,12 +1653,12 @@
         <v>12</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="14.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="8" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B12" s="9">
         <v>600861</v>
@@ -1636,13 +1667,13 @@
         <v>-1311</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G12" s="5">
         <v>151</v>
@@ -1651,12 +1682,12 @@
         <v>8</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="14.25" customHeight="1">
       <c r="A13" s="8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B13" s="9">
         <v>836</v>
@@ -1665,13 +1696,13 @@
         <v>7792</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G13" s="5">
         <v>151</v>
@@ -1680,12 +1711,12 @@
         <v>8</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="14.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B14" s="9">
         <v>600879</v>
@@ -1694,13 +1725,13 @@
         <v>465</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G14" s="5">
         <v>151</v>
@@ -1709,12 +1740,12 @@
         <v>8</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="14.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="8" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B15" s="9">
         <v>17</v>
@@ -1723,13 +1754,13 @@
         <v>328</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G15" s="5">
         <v>151</v>
@@ -1738,12 +1769,12 @@
         <v>8</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="14.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="8" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B16" s="9">
         <v>601939</v>
@@ -1752,13 +1783,13 @@
         <v>-470</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G16" s="5">
         <v>151</v>
@@ -1767,12 +1798,12 @@
         <v>8</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="14.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="8" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B17" s="9">
         <v>428</v>
@@ -1781,13 +1812,13 @@
         <v>-1424</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G17" s="5">
         <v>151</v>
@@ -1796,12 +1827,12 @@
         <v>8</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="14.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="8" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B18" s="9">
         <v>600857</v>
@@ -1810,13 +1841,13 @@
         <v>-10376</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G18" s="5">
         <v>151</v>
@@ -1825,143 +1856,143 @@
         <v>8</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="14.25">
-      <c r="A19" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B19" s="9">
-        <v>159920</v>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15.6">
+      <c r="A19" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>93</v>
       </c>
       <c r="C19" s="11">
-        <v>4503.42</v>
+        <v>3636.2</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="G19" s="12">
-        <v>211</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>8</v>
+        <v>58</v>
+      </c>
+      <c r="G19" s="5">
+        <v>151</v>
+      </c>
+      <c r="H19" s="18" t="s">
+        <v>91</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="14.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="8" t="s">
         <v>41</v>
       </c>
       <c r="B20" s="9">
-        <v>510900</v>
+        <v>159920</v>
       </c>
       <c r="C20" s="11">
-        <v>12037.26</v>
+        <v>4503.42</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="G20" s="5">
-        <v>212</v>
+        <v>52</v>
+      </c>
+      <c r="G20" s="12">
+        <v>211</v>
       </c>
       <c r="H20" s="5" t="s">
         <v>8</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="14.25">
-      <c r="A21" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B21" s="10">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="9">
+        <v>510900</v>
+      </c>
+      <c r="C21" s="11">
+        <v>12037.26</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G21" s="5">
+        <v>212</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" s="10">
         <v>179</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C22" s="3">
         <v>-9.15</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G21" s="2">
+      <c r="D22" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G22" s="2">
         <v>314</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="H22" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I21" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="14.25">
-      <c r="A22" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22" s="9">
+      <c r="I22" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="9">
         <v>204001</v>
       </c>
-      <c r="C22" s="11">
+      <c r="C23" s="11">
         <v>241.61</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="G22" s="5">
-        <v>511</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="14.25">
-      <c r="A23" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B23" s="9">
-        <v>204007</v>
-      </c>
-      <c r="C23" s="11">
-        <v>335</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G23" s="5">
         <v>511</v>
@@ -1970,27 +2001,27 @@
         <v>8</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="14.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="8" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B24" s="9">
-        <v>131810</v>
+        <v>204007</v>
       </c>
       <c r="C24" s="11">
-        <v>204.94</v>
+        <v>335</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G24" s="5">
         <v>511</v>
@@ -1999,27 +2030,27 @@
         <v>8</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="14.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="8" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B25" s="9">
-        <v>131800</v>
+        <v>131810</v>
       </c>
       <c r="C25" s="11">
-        <v>11.33</v>
+        <v>204.94</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G25" s="5">
         <v>511</v>
@@ -2028,27 +2059,27 @@
         <v>8</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="16.5" customHeight="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="8" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B26" s="9">
-        <v>511010</v>
+        <v>131800</v>
       </c>
       <c r="C26" s="11">
-        <v>1049.9000000000001</v>
+        <v>11.33</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G26" s="5">
         <v>511</v>
@@ -2057,143 +2088,143 @@
         <v>8</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="9">
+        <v>511010</v>
+      </c>
+      <c r="C27" s="11">
+        <v>1049.9000000000001</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G27" s="5">
+        <v>511</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A28" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="10">
+      <c r="B28" s="10">
         <v>3376</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C28" s="3">
         <v>948.08</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D28" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E28" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="F28" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G27" s="2">
+      <c r="G28" s="2">
         <v>511</v>
       </c>
-      <c r="H27" s="2" t="s">
+      <c r="H28" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I27" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="14.25">
-      <c r="A28" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B28" s="9">
+      <c r="I28" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" s="9">
         <v>518880</v>
       </c>
-      <c r="C28" s="11">
+      <c r="C29" s="11">
         <v>-369</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D29" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E28" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G28" s="12">
+      <c r="E29" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G29" s="12">
         <v>611</v>
       </c>
-      <c r="H28" s="5" t="s">
+      <c r="H29" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I28" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="14.25">
-      <c r="A29" s="1" t="s">
+      <c r="I29" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B29" s="10">
+      <c r="B30" s="10">
         <v>999979</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C30" s="3">
         <v>1251.27</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D30" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E30" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="F30" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G29" s="2">
+      <c r="G30" s="2">
         <v>612</v>
       </c>
-      <c r="H29" s="2" t="s">
+      <c r="H30" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I29" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A30" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B30" s="9">
+      <c r="I30" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="14.25" customHeight="1">
+      <c r="A31" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" s="9">
         <v>162411</v>
       </c>
-      <c r="C30" s="11">
+      <c r="C31" s="11">
         <v>6232.74</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="G30" s="12">
-        <v>613</v>
-      </c>
-      <c r="H30" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I30" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="14.25">
-      <c r="A31" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B31" s="9">
-        <v>501018</v>
-      </c>
-      <c r="C31" s="11">
-        <v>202.82</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G31" s="12">
         <v>613</v>
@@ -2202,94 +2233,94 @@
         <v>8</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="14.25">
-      <c r="A32" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32" s="10">
-        <v>999998</v>
-      </c>
-      <c r="C32" s="3">
-        <v>73772.44</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="G32" s="2">
-        <v>998</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I32" s="15" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="14.25" customHeight="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" s="9">
+        <v>501018</v>
+      </c>
+      <c r="C32" s="11">
+        <v>202.82</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G32" s="12">
+        <v>613</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="15.6">
       <c r="A33" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B33" s="10">
         <v>999998</v>
       </c>
       <c r="C33" s="3">
-        <v>12928.46</v>
+        <v>73772.44</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="G33" s="2">
         <v>998</v>
       </c>
-      <c r="H33" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>90</v>
+      <c r="H33" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="I33" s="15" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="14.25" customHeight="1">
       <c r="A34" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B34" s="10">
-        <v>999999</v>
+        <v>999998</v>
       </c>
       <c r="C34" s="3">
-        <v>5137.66</v>
+        <v>12928.46</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G34" s="2">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I34" s="15" t="s">
-        <v>91</v>
+      <c r="I34" s="2" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="14.25" customHeight="1">
@@ -2300,25 +2331,25 @@
         <v>999999</v>
       </c>
       <c r="C35" s="3">
-        <v>1810.54</v>
+        <v>5137.66</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G35" s="2">
         <v>999</v>
       </c>
-      <c r="H35" s="2" t="s">
-        <v>34</v>
+      <c r="H35" s="16" t="s">
+        <v>89</v>
       </c>
       <c r="I35" s="15" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="14.25" customHeight="1">
@@ -2329,28 +2360,28 @@
         <v>999999</v>
       </c>
       <c r="C36" s="3">
-        <v>29830.12</v>
+        <v>1810.54</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G36" s="2">
         <v>999</v>
       </c>
-      <c r="H36" s="2" t="s">
-        <v>28</v>
+      <c r="H36" s="16" t="s">
+        <v>90</v>
       </c>
       <c r="I36" s="15" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="14.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="14.25" customHeight="1">
       <c r="A37" s="1" t="s">
         <v>24</v>
       </c>
@@ -2358,74 +2389,74 @@
         <v>999999</v>
       </c>
       <c r="C37" s="3">
-        <v>2771.85</v>
+        <v>29830.12</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G37" s="2">
         <v>999</v>
       </c>
-      <c r="H37" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A38" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B38" s="9">
+      <c r="H37" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="I37" s="15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B38" s="10">
+        <v>999999</v>
+      </c>
+      <c r="C38" s="3">
+        <v>2771.85</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G38" s="2">
+        <v>999</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="14.25" customHeight="1">
+      <c r="A39" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" s="9">
         <v>511990</v>
       </c>
-      <c r="C38" s="11">
+      <c r="C39" s="11">
         <v>1831.37</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G38" s="5">
-        <v>999</v>
-      </c>
-      <c r="H38" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I38" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="14.25">
-      <c r="A39" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B39" s="9">
-        <v>940018</v>
-      </c>
-      <c r="C39" s="11">
-        <v>380.43</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>25</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G39" s="5">
         <v>999</v>
@@ -2434,101 +2465,101 @@
         <v>8</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="14.25">
-      <c r="A40" s="8" t="str">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40" s="9">
+        <v>940018</v>
+      </c>
+      <c r="C40" s="11">
+        <v>380.43</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G40" s="5">
+        <v>999</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="8" t="str">
         <f>"现金添富"</f>
         <v>现金添富</v>
       </c>
-      <c r="B40" s="9" t="str">
+      <c r="B41" s="9" t="str">
         <f>"511980"</f>
         <v>511980</v>
       </c>
-      <c r="C40" s="11">
+      <c r="C41" s="11">
         <v>17.25</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="D41" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E40" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G40" s="5">
+      <c r="E41" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G41" s="5">
         <v>999</v>
       </c>
-      <c r="H40" s="5" t="s">
+      <c r="H41" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I40" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A41" s="8" t="str">
+      <c r="I41" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="14.25" customHeight="1">
+      <c r="A42" s="8" t="str">
         <f>"银华日利"</f>
         <v>银华日利</v>
       </c>
-      <c r="B41" s="9" t="str">
+      <c r="B42" s="9" t="str">
         <f>"511880"</f>
         <v>511880</v>
       </c>
-      <c r="C41" s="11">
+      <c r="C42" s="11">
         <v>12303.4</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="D42" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E41" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G41" s="5">
+      <c r="E42" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G42" s="5">
         <v>999</v>
       </c>
-      <c r="H41" s="5" t="s">
+      <c r="H42" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I41" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="14.25">
-      <c r="A42" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B42" s="10">
-        <v>999999</v>
-      </c>
-      <c r="C42" s="3">
-        <v>5674.89</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="G42" s="2">
-        <v>999</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I42" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="16.5" customHeight="1">
+      <c r="I42" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
         <v>24</v>
       </c>
@@ -2536,29 +2567,58 @@
         <v>999999</v>
       </c>
       <c r="C43" s="3">
-        <v>787.97</v>
+        <v>5674.89</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G43" s="2">
         <v>999</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A44" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B44" s="10">
+        <v>999999</v>
+      </c>
+      <c r="C44" s="3">
+        <v>787.97</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G44" s="2">
+        <v>999</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:I44">
+  <sortState ref="A2:I45">
     <sortCondition ref="G1"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/scripts/src/config/历史交易盈亏.xlsx
+++ b/scripts/src/config/历史交易盈亏.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20353"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\finance-data\scripts\src\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\finance-data\Scripts\src\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81DD477A-5A15-4D05-9ED3-6332171B3553}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ED5DA18-C344-409B-BF19-55FF4E4CB1FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="3900" windowWidth="28800" windowHeight="15432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="历史交易盈亏" sheetId="3" r:id="rId1"/>
@@ -19,6 +19,14 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">历史交易盈亏!$A$1:$H$44</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1321,23 +1329,23 @@
   <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="A45" sqref="A45:I45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="26.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.6">
+    <row r="1" spans="1:9" ht="16.5">
       <c r="A1" s="7" t="s">
         <v>51</v>
       </c>
@@ -1366,7 +1374,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" ht="14.25">
       <c r="A2" s="8" t="s">
         <v>34</v>
       </c>
@@ -1424,7 +1432,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" ht="14.25">
       <c r="A4" s="4" t="s">
         <v>22</v>
       </c>
@@ -1482,7 +1490,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" ht="14.25">
       <c r="A6" s="4" t="s">
         <v>16</v>
       </c>
@@ -1569,7 +1577,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15.6">
+    <row r="9" spans="1:9" ht="16.5">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
@@ -1598,7 +1606,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" ht="14.25">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -1627,7 +1635,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" ht="14.25">
       <c r="A11" s="1" t="s">
         <v>59</v>
       </c>
@@ -1656,7 +1664,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" ht="14.25">
       <c r="A12" s="8" t="s">
         <v>64</v>
       </c>
@@ -1714,7 +1722,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" ht="14.25">
       <c r="A14" s="8" t="s">
         <v>67</v>
       </c>
@@ -1743,7 +1751,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" ht="14.25">
       <c r="A15" s="8" t="s">
         <v>68</v>
       </c>
@@ -1772,7 +1780,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" ht="14.25">
       <c r="A16" s="8" t="s">
         <v>69</v>
       </c>
@@ -1801,7 +1809,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" ht="14.25">
       <c r="A17" s="8" t="s">
         <v>70</v>
       </c>
@@ -1830,7 +1838,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" ht="14.25">
       <c r="A18" s="8" t="s">
         <v>71</v>
       </c>
@@ -1859,7 +1867,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15.6">
+    <row r="19" spans="1:9" ht="16.5">
       <c r="A19" s="17" t="s">
         <v>92</v>
       </c>
@@ -1888,7 +1896,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" ht="14.25">
       <c r="A20" s="8" t="s">
         <v>41</v>
       </c>
@@ -1917,7 +1925,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" ht="14.25">
       <c r="A21" s="8" t="s">
         <v>37</v>
       </c>
@@ -1946,7 +1954,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" ht="14.25">
       <c r="A22" s="1" t="s">
         <v>60</v>
       </c>
@@ -1975,7 +1983,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" ht="14.25">
       <c r="A23" s="8" t="s">
         <v>35</v>
       </c>
@@ -2004,7 +2012,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" ht="14.25">
       <c r="A24" s="8" t="s">
         <v>36</v>
       </c>
@@ -2033,7 +2041,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" ht="14.25">
       <c r="A25" s="8" t="s">
         <v>38</v>
       </c>
@@ -2062,7 +2070,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" ht="14.25">
       <c r="A26" s="8" t="s">
         <v>39</v>
       </c>
@@ -2149,7 +2157,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" ht="14.25">
       <c r="A29" s="8" t="s">
         <v>44</v>
       </c>
@@ -2178,7 +2186,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" ht="14.25">
       <c r="A30" s="1" t="s">
         <v>19</v>
       </c>
@@ -2236,7 +2244,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" ht="14.25">
       <c r="A32" s="8" t="s">
         <v>45</v>
       </c>
@@ -2265,7 +2273,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15.6">
+    <row r="33" spans="1:9" ht="16.5">
       <c r="A33" s="1" t="s">
         <v>29</v>
       </c>
@@ -2410,7 +2418,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" ht="14.25">
       <c r="A38" s="1" t="s">
         <v>24</v>
       </c>
@@ -2468,7 +2476,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" ht="14.25">
       <c r="A40" s="8" t="s">
         <v>46</v>
       </c>
@@ -2497,7 +2505,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" ht="14.25">
       <c r="A41" s="8" t="str">
         <f>"现金添富"</f>
         <v>现金添富</v>
@@ -2559,7 +2567,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" ht="14.25">
       <c r="A43" s="1" t="s">
         <v>24</v>
       </c>

--- a/scripts/src/config/历史交易盈亏.xlsx
+++ b/scripts/src/config/历史交易盈亏.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\finance-data\Scripts\src\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\finance-data\scripts\src\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ED5DA18-C344-409B-BF19-55FF4E4CB1FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C377918-C62C-4B0C-B276-D5530081AD7E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="历史交易盈亏" sheetId="3" r:id="rId1"/>
@@ -23,7 +23,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -56,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="95">
   <si>
     <t>基金代码</t>
   </si>
@@ -864,6 +863,45 @@
   </si>
   <si>
     <t>NA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>广发中证</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>500ETF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>联接</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>C</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1326,10 +1364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFB6DA6C-0982-42D1-A4BB-A258CDFBC523}">
-  <dimension ref="A1:I44"/>
+  <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45:I45"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2625,6 +2663,35 @@
         <v>85</v>
       </c>
     </row>
+    <row r="45" spans="1:9" ht="16.5">
+      <c r="A45" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B45" s="10">
+        <v>2903</v>
+      </c>
+      <c r="C45" s="3">
+        <v>46.98</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G45" s="2">
+        <v>121</v>
+      </c>
+      <c r="H45" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="I45" s="15" t="s">
+        <v>86</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:I45">
     <sortCondition ref="G1"/>

--- a/scripts/src/config/历史交易盈亏.xlsx
+++ b/scripts/src/config/历史交易盈亏.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20353"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\finance-data\scripts\src\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C377918-C62C-4B0C-B276-D5530081AD7E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EC82210-39C8-415A-A8F9-C1D0BD56A413}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,13 +19,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">历史交易盈亏!$A$1:$H$44</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -55,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="99">
   <si>
     <t>基金代码</t>
   </si>
@@ -902,6 +895,38 @@
       </rPr>
       <t>C</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可转债</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>交银裕盈纯债债券</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>债券</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稳稳的幸福父</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1364,26 +1389,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFB6DA6C-0982-42D1-A4BB-A258CDFBC523}">
-  <dimension ref="A1:I45"/>
+  <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="26.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.5">
+    <row r="1" spans="1:9" ht="15.6">
       <c r="A1" s="7" t="s">
         <v>51</v>
       </c>
@@ -1412,7 +1437,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="14.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="8" t="s">
         <v>34</v>
       </c>
@@ -1470,7 +1495,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="14.25">
+    <row r="4" spans="1:9">
       <c r="A4" s="4" t="s">
         <v>22</v>
       </c>
@@ -1528,7 +1553,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="14.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="4" t="s">
         <v>16</v>
       </c>
@@ -1615,7 +1640,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="16.5">
+    <row r="9" spans="1:9" ht="15.6">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
@@ -1644,7 +1669,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.25">
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -1673,7 +1698,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="14.25">
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
         <v>59</v>
       </c>
@@ -1702,7 +1727,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="14.25">
+    <row r="12" spans="1:9">
       <c r="A12" s="8" t="s">
         <v>64</v>
       </c>
@@ -1760,7 +1785,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="14.25">
+    <row r="14" spans="1:9">
       <c r="A14" s="8" t="s">
         <v>67</v>
       </c>
@@ -1789,7 +1814,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="14.25">
+    <row r="15" spans="1:9">
       <c r="A15" s="8" t="s">
         <v>68</v>
       </c>
@@ -1818,7 +1843,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="14.25">
+    <row r="16" spans="1:9">
       <c r="A16" s="8" t="s">
         <v>69</v>
       </c>
@@ -1847,7 +1872,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="14.25">
+    <row r="17" spans="1:9">
       <c r="A17" s="8" t="s">
         <v>70</v>
       </c>
@@ -1876,7 +1901,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="14.25">
+    <row r="18" spans="1:9">
       <c r="A18" s="8" t="s">
         <v>71</v>
       </c>
@@ -1905,7 +1930,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="16.5">
+    <row r="19" spans="1:9" ht="15.6">
       <c r="A19" s="17" t="s">
         <v>92</v>
       </c>
@@ -1934,7 +1959,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="14.25">
+    <row r="20" spans="1:9">
       <c r="A20" s="8" t="s">
         <v>41</v>
       </c>
@@ -1963,7 +1988,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="14.25">
+    <row r="21" spans="1:9">
       <c r="A21" s="8" t="s">
         <v>37</v>
       </c>
@@ -1992,7 +2017,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="14.25">
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
         <v>60</v>
       </c>
@@ -2021,7 +2046,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="14.25">
+    <row r="23" spans="1:9">
       <c r="A23" s="8" t="s">
         <v>35</v>
       </c>
@@ -2050,7 +2075,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="14.25">
+    <row r="24" spans="1:9">
       <c r="A24" s="8" t="s">
         <v>36</v>
       </c>
@@ -2079,7 +2104,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="14.25">
+    <row r="25" spans="1:9">
       <c r="A25" s="8" t="s">
         <v>38</v>
       </c>
@@ -2108,7 +2133,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="14.25">
+    <row r="26" spans="1:9">
       <c r="A26" s="8" t="s">
         <v>39</v>
       </c>
@@ -2195,7 +2220,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="14.25">
+    <row r="29" spans="1:9">
       <c r="A29" s="8" t="s">
         <v>44</v>
       </c>
@@ -2224,7 +2249,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="14.25">
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
         <v>19</v>
       </c>
@@ -2282,7 +2307,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="14.25">
+    <row r="32" spans="1:9">
       <c r="A32" s="8" t="s">
         <v>45</v>
       </c>
@@ -2311,7 +2336,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="16.5">
+    <row r="33" spans="1:9" ht="15.6">
       <c r="A33" s="1" t="s">
         <v>29</v>
       </c>
@@ -2456,7 +2481,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="14.25">
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
         <v>24</v>
       </c>
@@ -2514,7 +2539,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="14.25">
+    <row r="40" spans="1:9">
       <c r="A40" s="8" t="s">
         <v>46</v>
       </c>
@@ -2543,7 +2568,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="14.25">
+    <row r="41" spans="1:9">
       <c r="A41" s="8" t="str">
         <f>"现金添富"</f>
         <v>现金添富</v>
@@ -2605,7 +2630,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="14.25">
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
         <v>24</v>
       </c>
@@ -2663,7 +2688,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="16.5">
+    <row r="45" spans="1:9" ht="15.6">
       <c r="A45" s="1" t="s">
         <v>94</v>
       </c>
@@ -2689,6 +2714,35 @@
         <v>87</v>
       </c>
       <c r="I45" s="15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="15.6">
+      <c r="A46" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B46" s="10">
+        <v>519776</v>
+      </c>
+      <c r="C46" s="3">
+        <v>553.48</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G46" s="2">
+        <v>512</v>
+      </c>
+      <c r="H46" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="I46" s="15" t="s">
         <v>86</v>
       </c>
     </row>

--- a/scripts/src/config/历史交易盈亏.xlsx
+++ b/scripts/src/config/历史交易盈亏.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20353"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\finance-data\scripts\src\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EC82210-39C8-415A-A8F9-C1D0BD56A413}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3701AC26-D000-43AA-A56F-4029528B77E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,6 +19,14 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">历史交易盈亏!$A$1:$H$44</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -28,7 +36,7 @@
     <author>kangliquan</author>
   </authors>
   <commentList>
-    <comment ref="C40" authorId="0" shapeId="0" xr:uid="{3E505844-047B-46FE-95CA-F4C7CE10ED82}">
+    <comment ref="C43" authorId="0" shapeId="0" xr:uid="{3E505844-047B-46FE-95CA-F4C7CE10ED82}">
       <text>
         <r>
           <rPr>
@@ -48,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="100">
   <si>
     <t>基金代码</t>
   </si>
@@ -927,6 +935,45 @@
   </si>
   <si>
     <t>稳稳的幸福父</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>创金合信中证</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>指数增强</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>C</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1389,26 +1436,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFB6DA6C-0982-42D1-A4BB-A258CDFBC523}">
-  <dimension ref="A1:I46"/>
+  <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="K37" sqref="K37"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H47" sqref="H47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="26.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.6">
+    <row r="1" spans="1:9" ht="16.5">
       <c r="A1" s="7" t="s">
         <v>51</v>
       </c>
@@ -1437,7 +1484,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" ht="14.25">
       <c r="A2" s="8" t="s">
         <v>34</v>
       </c>
@@ -1495,7 +1542,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" ht="14.25">
       <c r="A4" s="4" t="s">
         <v>22</v>
       </c>
@@ -1553,73 +1600,74 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:9" ht="14.25" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6" s="10">
+        <v>2903</v>
+      </c>
+      <c r="C6" s="3">
+        <f>46.98+175.41</f>
+        <v>222.39</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="2">
+        <v>121</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="14.25" customHeight="1">
+      <c r="A7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B7" s="9">
         <v>512100</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C7" s="6">
         <v>-5258.97</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F7" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G7" s="5">
         <v>123</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A7" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B7" s="10">
-        <v>3765</v>
-      </c>
-      <c r="C7" s="3">
-        <v>61.68</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G7" s="2">
-        <v>124</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="I7" s="15" t="s">
-        <v>86</v>
+      <c r="I7" s="5" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="14.25" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="B8" s="10">
-        <v>110026</v>
+        <v>3647</v>
       </c>
       <c r="C8" s="3">
-        <v>1866.02</v>
+        <v>231.28</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>65</v>
@@ -1628,39 +1676,39 @@
         <v>6</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G8" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H8" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="I8" s="13" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15.6">
+      <c r="I8" s="15" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="16.5">
       <c r="A9" s="1" t="s">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="B9" s="10">
-        <v>110022</v>
+        <v>3765</v>
       </c>
       <c r="C9" s="3">
-        <v>221.28</v>
+        <v>61.68</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>65</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G9" s="2">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="H9" s="13" t="s">
         <v>87</v>
@@ -1669,44 +1717,44 @@
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" ht="14.25" customHeight="1">
       <c r="A10" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" s="10">
+        <v>110026</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1866.02</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G10" s="2">
+        <v>124</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="14.25" customHeight="1">
+      <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B11" s="10">
         <v>110022</v>
       </c>
-      <c r="C10" s="3">
-        <v>3540.4400000000005</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" s="2">
-        <v>148</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B11" s="10">
-        <v>161725</v>
-      </c>
       <c r="C11" s="3">
-        <v>-24.41</v>
+        <v>221.28</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>65</v>
@@ -1715,85 +1763,85 @@
         <v>7</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="G11" s="2">
         <v>148</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H11" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="I11" s="15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="14.25">
+      <c r="A12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="10">
+        <v>110022</v>
+      </c>
+      <c r="C12" s="3">
+        <v>3540.4400000000005</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="2">
+        <v>148</v>
+      </c>
+      <c r="H12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I11" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="8" t="s">
+      <c r="I12" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="14.25" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="10">
+        <v>161725</v>
+      </c>
+      <c r="C13" s="3">
+        <v>-24.41</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="2">
+        <v>148</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="14.25">
+      <c r="A14" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B14" s="9">
         <v>600861</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C14" s="11">
         <v>-1311</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="G12" s="5">
-        <v>151</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A13" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="B13" s="9">
-        <v>836</v>
-      </c>
-      <c r="C13" s="11">
-        <v>7792</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="G13" s="5">
-        <v>151</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="B14" s="9">
-        <v>600879</v>
-      </c>
-      <c r="C14" s="11">
-        <v>465</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>65</v>
@@ -1814,15 +1862,15 @@
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" ht="14.25">
       <c r="A15" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B15" s="9">
-        <v>17</v>
+        <v>836</v>
       </c>
       <c r="C15" s="11">
-        <v>328</v>
+        <v>7792</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>65</v>
@@ -1843,15 +1891,15 @@
         <v>85</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" ht="14.25">
       <c r="A16" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B16" s="9">
-        <v>601939</v>
+        <v>600879</v>
       </c>
       <c r="C16" s="11">
-        <v>-470</v>
+        <v>465</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>65</v>
@@ -1872,15 +1920,15 @@
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" ht="14.25">
       <c r="A17" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B17" s="9">
-        <v>428</v>
+        <v>17</v>
       </c>
       <c r="C17" s="11">
-        <v>-1424</v>
+        <v>328</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>65</v>
@@ -1901,15 +1949,15 @@
         <v>85</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" ht="14.25">
       <c r="A18" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B18" s="9">
-        <v>600857</v>
+        <v>601939</v>
       </c>
       <c r="C18" s="11">
-        <v>-10376</v>
+        <v>-470</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>65</v>
@@ -1930,15 +1978,15 @@
         <v>85</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15.6">
-      <c r="A19" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>93</v>
+    <row r="19" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A19" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="9">
+        <v>428</v>
       </c>
       <c r="C19" s="11">
-        <v>3636.2</v>
+        <v>-1424</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>65</v>
@@ -1952,34 +2000,34 @@
       <c r="G19" s="5">
         <v>151</v>
       </c>
-      <c r="H19" s="18" t="s">
-        <v>91</v>
+      <c r="H19" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="I19" s="5" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" ht="14.25">
       <c r="A20" s="8" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="B20" s="9">
-        <v>159920</v>
+        <v>600857</v>
       </c>
       <c r="C20" s="11">
-        <v>4503.42</v>
+        <v>-10376</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="G20" s="12">
-        <v>211</v>
+        <v>58</v>
+      </c>
+      <c r="G20" s="5">
+        <v>151</v>
       </c>
       <c r="H20" s="5" t="s">
         <v>8</v>
@@ -1988,85 +2036,85 @@
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="8" t="s">
+    <row r="21" spans="1:9" ht="14.25" customHeight="1">
+      <c r="A21" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C21" s="11">
+        <v>3636.2</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G21" s="5">
+        <v>151</v>
+      </c>
+      <c r="H21" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="14.25">
+      <c r="A22" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="9">
+        <v>159920</v>
+      </c>
+      <c r="C22" s="11">
+        <v>4503.42</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G22" s="12">
+        <v>211</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="14.25">
+      <c r="A23" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="9">
+      <c r="B23" s="9">
         <v>510900</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C23" s="11">
         <v>12037.26</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D23" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E23" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F23" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G23" s="5">
         <v>212</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B22" s="10">
-        <v>179</v>
-      </c>
-      <c r="C22" s="3">
-        <v>-9.15</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G22" s="2">
-        <v>314</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B23" s="9">
-        <v>204001</v>
-      </c>
-      <c r="C23" s="11">
-        <v>241.61</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="G23" s="5">
-        <v>511</v>
       </c>
       <c r="H23" s="5" t="s">
         <v>8</v>
@@ -2075,44 +2123,44 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B24" s="9">
-        <v>204007</v>
-      </c>
-      <c r="C24" s="11">
-        <v>335</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="G24" s="5">
-        <v>511</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+    <row r="24" spans="1:9" ht="14.25">
+      <c r="A24" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="10">
+        <v>179</v>
+      </c>
+      <c r="C24" s="3">
+        <v>-9.15</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G24" s="2">
+        <v>314</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="14.25">
       <c r="A25" s="8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B25" s="9">
-        <v>131810</v>
+        <v>204001</v>
       </c>
       <c r="C25" s="11">
-        <v>204.94</v>
+        <v>241.61</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>13</v>
@@ -2133,15 +2181,15 @@
         <v>85</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" ht="14.25">
       <c r="A26" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B26" s="9">
-        <v>131800</v>
+        <v>204007</v>
       </c>
       <c r="C26" s="11">
-        <v>11.33</v>
+        <v>335</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>13</v>
@@ -2164,13 +2212,13 @@
     </row>
     <row r="27" spans="1:9" ht="16.5" customHeight="1">
       <c r="A27" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B27" s="9">
-        <v>511010</v>
+        <v>131810</v>
       </c>
       <c r="C27" s="11">
-        <v>1049.9000000000001</v>
+        <v>204.94</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>13</v>
@@ -2192,55 +2240,55 @@
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A28" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B28" s="10">
-        <v>3376</v>
-      </c>
-      <c r="C28" s="3">
-        <v>948.08</v>
-      </c>
-      <c r="D28" s="2" t="s">
+      <c r="A28" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" s="9">
+        <v>131800</v>
+      </c>
+      <c r="C28" s="11">
+        <v>11.33</v>
+      </c>
+      <c r="D28" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E28" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G28" s="2">
+      <c r="E28" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G28" s="5">
         <v>511</v>
       </c>
-      <c r="H28" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+      <c r="H28" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="14.25">
       <c r="A29" s="8" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B29" s="9">
-        <v>518880</v>
+        <v>511010</v>
       </c>
       <c r="C29" s="11">
-        <v>-369</v>
+        <v>1049.9000000000001</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="G29" s="12">
-        <v>611</v>
+        <v>54</v>
+      </c>
+      <c r="G29" s="5">
+        <v>511</v>
       </c>
       <c r="H29" s="5" t="s">
         <v>8</v>
@@ -2249,73 +2297,73 @@
         <v>85</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" ht="14.25">
       <c r="A30" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B30" s="10">
-        <v>999979</v>
+        <v>3376</v>
       </c>
       <c r="C30" s="3">
-        <v>1251.27</v>
+        <v>948.08</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="G30" s="2">
-        <v>612</v>
+        <v>511</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A31" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B31" s="9">
-        <v>162411</v>
-      </c>
-      <c r="C31" s="11">
-        <v>6232.74</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="G31" s="12">
-        <v>613</v>
-      </c>
-      <c r="H31" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I31" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+      <c r="A31" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B31" s="10">
+        <v>519776</v>
+      </c>
+      <c r="C31" s="3">
+        <v>553.48</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G31" s="2">
+        <v>512</v>
+      </c>
+      <c r="H31" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="I31" s="15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="14.25">
       <c r="A32" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B32" s="9">
-        <v>501018</v>
+        <v>518880</v>
       </c>
       <c r="C32" s="11">
-        <v>202.82</v>
+        <v>-369</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>11</v>
@@ -2324,10 +2372,10 @@
         <v>50</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G32" s="12">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="H32" s="5" t="s">
         <v>8</v>
@@ -2336,117 +2384,117 @@
         <v>85</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15.6">
+    <row r="33" spans="1:9" ht="16.5" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B33" s="10">
-        <v>999998</v>
+        <v>999979</v>
       </c>
       <c r="C33" s="3">
-        <v>73772.44</v>
+        <v>1251.27</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>82</v>
+        <v>17</v>
       </c>
       <c r="G33" s="2">
-        <v>998</v>
-      </c>
-      <c r="H33" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="I33" s="15" t="s">
-        <v>86</v>
+        <v>612</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A34" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B34" s="10">
-        <v>999998</v>
-      </c>
-      <c r="C34" s="3">
-        <v>12928.46</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="G34" s="2">
-        <v>998</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I34" s="2" t="s">
+      <c r="A34" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" s="9">
+        <v>162411</v>
+      </c>
+      <c r="C34" s="11">
+        <v>6232.74</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G34" s="12">
+        <v>613</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I34" s="5" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A35" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B35" s="10">
-        <v>999999</v>
-      </c>
-      <c r="C35" s="3">
-        <v>5137.66</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G35" s="2">
-        <v>999</v>
-      </c>
-      <c r="H35" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="I35" s="15" t="s">
-        <v>86</v>
+      <c r="A35" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35" s="9">
+        <v>501018</v>
+      </c>
+      <c r="C35" s="11">
+        <v>202.82</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G35" s="12">
+        <v>613</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="14.25" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B36" s="10">
-        <v>999999</v>
+        <v>999998</v>
       </c>
       <c r="C36" s="3">
-        <v>1810.54</v>
+        <v>73772.44</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="G36" s="2">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="H36" s="16" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I36" s="15" t="s">
         <v>86</v>
@@ -2454,34 +2502,34 @@
     </row>
     <row r="37" spans="1:9" ht="14.25" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B37" s="10">
-        <v>999999</v>
+        <v>999998</v>
       </c>
       <c r="C37" s="3">
-        <v>29830.12</v>
+        <v>12928.46</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="G37" s="2">
-        <v>999</v>
-      </c>
-      <c r="H37" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="I37" s="15" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>998</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="14.25" customHeight="1">
       <c r="A38" s="1" t="s">
         <v>24</v>
       </c>
@@ -2489,7 +2537,7 @@
         <v>999999</v>
       </c>
       <c r="C38" s="3">
-        <v>2771.85</v>
+        <v>5137.66</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>25</v>
@@ -2503,251 +2551,280 @@
       <c r="G38" s="2">
         <v>999</v>
       </c>
-      <c r="H38" s="2" t="s">
+      <c r="H38" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="I38" s="15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="14.25" customHeight="1">
+      <c r="A39" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B39" s="10">
+        <v>999999</v>
+      </c>
+      <c r="C39" s="3">
+        <v>1810.54</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G39" s="2">
+        <v>999</v>
+      </c>
+      <c r="H39" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="I39" s="15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="14.25" customHeight="1">
+      <c r="A40" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B40" s="10">
+        <v>999999</v>
+      </c>
+      <c r="C40" s="3">
+        <v>29830.12</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G40" s="2">
+        <v>999</v>
+      </c>
+      <c r="H40" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="I40" s="15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="14.25">
+      <c r="A41" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B41" s="10">
+        <v>999999</v>
+      </c>
+      <c r="C41" s="3">
+        <v>2771.85</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G41" s="2">
+        <v>999</v>
+      </c>
+      <c r="H41" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A39" s="8" t="s">
+      <c r="I41" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="14.25" customHeight="1">
+      <c r="A42" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B39" s="9">
+      <c r="B42" s="9">
         <v>511990</v>
       </c>
-      <c r="C39" s="11">
+      <c r="C42" s="11">
         <v>1831.37</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="D42" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E39" s="5" t="s">
+      <c r="E42" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="F39" s="5" t="s">
+      <c r="F42" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="G39" s="5">
+      <c r="G42" s="5">
         <v>999</v>
       </c>
-      <c r="H39" s="5" t="s">
+      <c r="H42" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I39" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
-      <c r="A40" s="8" t="s">
+      <c r="I42" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="14.25">
+      <c r="A43" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B40" s="9">
+      <c r="B43" s="9">
         <v>940018</v>
       </c>
-      <c r="C40" s="11">
+      <c r="C43" s="11">
         <v>380.43</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="D43" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E40" s="5" t="s">
+      <c r="E43" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="F40" s="5" t="s">
+      <c r="F43" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="G40" s="5">
+      <c r="G43" s="5">
         <v>999</v>
       </c>
-      <c r="H40" s="5" t="s">
+      <c r="H43" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I40" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
-      <c r="A41" s="8" t="str">
+      <c r="I43" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A44" s="8" t="str">
         <f>"现金添富"</f>
         <v>现金添富</v>
       </c>
-      <c r="B41" s="9" t="str">
+      <c r="B44" s="9" t="str">
         <f>"511980"</f>
         <v>511980</v>
       </c>
-      <c r="C41" s="11">
+      <c r="C44" s="11">
         <v>17.25</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="D44" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E41" s="5" t="s">
+      <c r="E44" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="F41" s="5" t="s">
+      <c r="F44" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="G41" s="5">
+      <c r="G44" s="5">
         <v>999</v>
       </c>
-      <c r="H41" s="5" t="s">
+      <c r="H44" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I41" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A42" s="8" t="str">
+      <c r="I44" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A45" s="8" t="str">
         <f>"银华日利"</f>
         <v>银华日利</v>
       </c>
-      <c r="B42" s="9" t="str">
+      <c r="B45" s="9" t="str">
         <f>"511880"</f>
         <v>511880</v>
       </c>
-      <c r="C42" s="11">
+      <c r="C45" s="11">
         <v>12303.4</v>
       </c>
-      <c r="D42" s="5" t="s">
+      <c r="D45" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E42" s="5" t="s">
+      <c r="E45" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="F42" s="5" t="s">
+      <c r="F45" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="G42" s="5">
+      <c r="G45" s="5">
         <v>999</v>
       </c>
-      <c r="H42" s="5" t="s">
+      <c r="H45" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I42" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
-      <c r="A43" s="1" t="s">
+      <c r="I45" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A46" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B43" s="10">
+      <c r="B46" s="10">
         <v>999999</v>
       </c>
-      <c r="C43" s="3">
+      <c r="C46" s="3">
         <v>5674.89</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="D46" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E43" s="2" t="s">
+      <c r="E46" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F43" s="2" t="s">
+      <c r="F46" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="G43" s="2">
+      <c r="G46" s="2">
         <v>999</v>
       </c>
-      <c r="H43" s="2" t="s">
+      <c r="H46" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I43" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A44" s="1" t="s">
+      <c r="I46" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A47" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B44" s="10">
+      <c r="B47" s="10">
         <v>999999</v>
       </c>
-      <c r="C44" s="3">
+      <c r="C47" s="3">
         <v>787.97</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="D47" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E44" s="2" t="s">
+      <c r="E47" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F44" s="2" t="s">
+      <c r="F47" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="G44" s="2">
+      <c r="G47" s="2">
         <v>999</v>
       </c>
-      <c r="H44" s="2" t="s">
+      <c r="H47" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="I44" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="15.6">
-      <c r="A45" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B45" s="10">
-        <v>2903</v>
-      </c>
-      <c r="C45" s="3">
-        <v>46.98</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G45" s="2">
-        <v>121</v>
-      </c>
-      <c r="H45" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="I45" s="15" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="15.6">
-      <c r="A46" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B46" s="10">
-        <v>519776</v>
-      </c>
-      <c r="C46" s="3">
-        <v>553.48</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="G46" s="2">
-        <v>512</v>
-      </c>
-      <c r="H46" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="I46" s="15" t="s">
-        <v>86</v>
+      <c r="I47" s="2" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:I45">
+  <sortState ref="A2:I47">
     <sortCondition ref="G1"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/scripts/src/config/历史交易盈亏.xlsx
+++ b/scripts/src/config/历史交易盈亏.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\finance-data\scripts\src\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\finance-data\Scripts\src\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3701AC26-D000-43AA-A56F-4029528B77E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32657C6C-E2A3-4CD0-83C7-9A64697781ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="历史交易盈亏" sheetId="3" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="102">
   <si>
     <t>基金代码</t>
   </si>
@@ -974,6 +974,31 @@
       </rPr>
       <t>C</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>房地产</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>P2P</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现金账户</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1436,10 +1461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFB6DA6C-0982-42D1-A4BB-A258CDFBC523}">
-  <dimension ref="A1:I47"/>
+  <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H47" sqref="H47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48:I48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2823,6 +2848,35 @@
         <v>85</v>
       </c>
     </row>
+    <row r="48" spans="1:9" ht="14.25">
+      <c r="A48" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B48" s="10">
+        <v>999998</v>
+      </c>
+      <c r="C48" s="3">
+        <v>16142</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G48" s="2">
+        <v>998</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:I47">
     <sortCondition ref="G1"/>

--- a/scripts/src/config/历史交易盈亏.xlsx
+++ b/scripts/src/config/历史交易盈亏.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\finance-data\Scripts\src\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32657C6C-E2A3-4CD0-83C7-9A64697781ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{217767EA-B36F-4099-ABAF-105C53ADFDCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5070" yWindow="5070" windowWidth="6210" windowHeight="13365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="历史交易盈亏" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
     <author>kangliquan</author>
   </authors>
   <commentList>
-    <comment ref="C43" authorId="0" shapeId="0" xr:uid="{3E505844-047B-46FE-95CA-F4C7CE10ED82}">
+    <comment ref="C47" authorId="0" shapeId="0" xr:uid="{3E505844-047B-46FE-95CA-F4C7CE10ED82}">
       <text>
         <r>
           <rPr>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="110">
   <si>
     <t>基金代码</t>
   </si>
@@ -999,6 +999,52 @@
   </si>
   <si>
     <t>现金账户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>且慢 S 定投</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华宝红利基金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>华宝红利基金</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红利价值</t>
+  </si>
+  <si>
+    <t>标普红利</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>父母</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>螺丝钉父</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>康力泉</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1461,10 +1507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFB6DA6C-0982-42D1-A4BB-A258CDFBC523}">
-  <dimension ref="A1:I48"/>
+  <dimension ref="A1:I52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48:I48"/>
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1773,187 +1819,187 @@
     </row>
     <row r="11" spans="1:9" ht="14.25" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>104</v>
       </c>
       <c r="B11" s="10">
-        <v>110022</v>
+        <v>501029</v>
       </c>
       <c r="C11" s="3">
-        <v>221.28</v>
+        <v>-14.4</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>65</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>7</v>
+        <v>105</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="G11" s="2">
-        <v>148</v>
-      </c>
-      <c r="H11" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="I11" s="15" t="s">
-        <v>86</v>
+        <v>132</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="14.25">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>103</v>
       </c>
       <c r="B12" s="10">
-        <v>110022</v>
+        <v>501029</v>
       </c>
       <c r="C12" s="3">
-        <v>3540.4400000000005</v>
+        <v>-15.12</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>7</v>
+        <v>105</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="G12" s="2">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="14.25" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>59</v>
+        <v>103</v>
       </c>
       <c r="B13" s="10">
-        <v>161725</v>
+        <v>501029</v>
       </c>
       <c r="C13" s="3">
-        <v>-24.41</v>
+        <v>-36.770000000000003</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>65</v>
       </c>
       <c r="E13" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G13" s="2">
+        <v>132</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I13" s="15" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="14.25" customHeight="1">
+      <c r="A14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="10">
+        <v>110022</v>
+      </c>
+      <c r="C14" s="3">
+        <v>221.28</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F14" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="2">
+        <v>148</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="I14" s="15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="14.25">
+      <c r="A15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="10">
+        <v>110022</v>
+      </c>
+      <c r="C15" s="3">
+        <v>3540.4400000000005</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G15" s="2">
         <v>148</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="H15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I13" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="14.25">
-      <c r="A14" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="B14" s="9">
-        <v>600861</v>
-      </c>
-      <c r="C14" s="11">
-        <v>-1311</v>
-      </c>
-      <c r="D14" s="5" t="s">
+      <c r="I15" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="14.25">
+      <c r="A16" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" s="10">
+        <v>161725</v>
+      </c>
+      <c r="C16" s="3">
+        <v>-24.41</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="G14" s="5">
-        <v>151</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="14.25">
-      <c r="A15" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="B15" s="9">
-        <v>836</v>
-      </c>
-      <c r="C15" s="11">
-        <v>7792</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="G15" s="5">
-        <v>151</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="14.25">
-      <c r="A16" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="B16" s="9">
-        <v>600879</v>
-      </c>
-      <c r="C16" s="11">
-        <v>465</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="G16" s="5">
-        <v>151</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I16" s="5" t="s">
+      <c r="E16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="2">
+        <v>148</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16" s="2" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="14.25">
       <c r="A17" s="8" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B17" s="9">
-        <v>17</v>
+        <v>600861</v>
       </c>
       <c r="C17" s="11">
-        <v>328</v>
+        <v>-1311</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>65</v>
@@ -1976,13 +2022,13 @@
     </row>
     <row r="18" spans="1:9" ht="14.25">
       <c r="A18" s="8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B18" s="9">
-        <v>601939</v>
+        <v>836</v>
       </c>
       <c r="C18" s="11">
-        <v>-470</v>
+        <v>7792</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>65</v>
@@ -2005,13 +2051,13 @@
     </row>
     <row r="19" spans="1:9" ht="16.5" customHeight="1">
       <c r="A19" s="8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B19" s="9">
-        <v>428</v>
+        <v>600879</v>
       </c>
       <c r="C19" s="11">
-        <v>-1424</v>
+        <v>465</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>65</v>
@@ -2034,13 +2080,13 @@
     </row>
     <row r="20" spans="1:9" ht="14.25">
       <c r="A20" s="8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B20" s="9">
-        <v>600857</v>
+        <v>17</v>
       </c>
       <c r="C20" s="11">
-        <v>-10376</v>
+        <v>328</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>65</v>
@@ -2062,14 +2108,14 @@
       </c>
     </row>
     <row r="21" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A21" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>93</v>
+      <c r="A21" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" s="9">
+        <v>601939</v>
       </c>
       <c r="C21" s="11">
-        <v>3636.2</v>
+        <v>-470</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>65</v>
@@ -2083,8 +2129,8 @@
       <c r="G21" s="5">
         <v>151</v>
       </c>
-      <c r="H21" s="18" t="s">
-        <v>91</v>
+      <c r="H21" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="I21" s="5" t="s">
         <v>85</v>
@@ -2092,25 +2138,25 @@
     </row>
     <row r="22" spans="1:9" ht="14.25">
       <c r="A22" s="8" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="B22" s="9">
-        <v>159920</v>
+        <v>428</v>
       </c>
       <c r="C22" s="11">
-        <v>4503.42</v>
+        <v>-1424</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="G22" s="12">
-        <v>211</v>
+        <v>58</v>
+      </c>
+      <c r="G22" s="5">
+        <v>151</v>
       </c>
       <c r="H22" s="5" t="s">
         <v>8</v>
@@ -2121,25 +2167,25 @@
     </row>
     <row r="23" spans="1:9" ht="14.25">
       <c r="A23" s="8" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="B23" s="9">
-        <v>510900</v>
+        <v>600857</v>
       </c>
       <c r="C23" s="11">
-        <v>12037.26</v>
+        <v>-10376</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="G23" s="5">
-        <v>212</v>
+        <v>151</v>
       </c>
       <c r="H23" s="5" t="s">
         <v>8</v>
@@ -2148,56 +2194,56 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="14.25">
-      <c r="A24" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B24" s="10">
-        <v>179</v>
-      </c>
-      <c r="C24" s="3">
-        <v>-9.15</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G24" s="2">
-        <v>314</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I24" s="2" t="s">
+    <row r="24" spans="1:9" ht="14.25" customHeight="1">
+      <c r="A24" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C24" s="11">
+        <v>3636.2</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G24" s="5">
+        <v>151</v>
+      </c>
+      <c r="H24" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="I24" s="5" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="14.25">
       <c r="A25" s="8" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B25" s="9">
-        <v>204001</v>
+        <v>159920</v>
       </c>
       <c r="C25" s="11">
-        <v>241.61</v>
+        <v>4503.42</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="G25" s="5">
-        <v>511</v>
+        <v>52</v>
+      </c>
+      <c r="G25" s="12">
+        <v>211</v>
       </c>
       <c r="H25" s="5" t="s">
         <v>8</v>
@@ -2208,25 +2254,25 @@
     </row>
     <row r="26" spans="1:9" ht="14.25">
       <c r="A26" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B26" s="9">
-        <v>204007</v>
+        <v>510900</v>
       </c>
       <c r="C26" s="11">
-        <v>335</v>
+        <v>12037.26</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G26" s="5">
-        <v>511</v>
+        <v>212</v>
       </c>
       <c r="H26" s="5" t="s">
         <v>8</v>
@@ -2236,43 +2282,43 @@
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A27" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B27" s="9">
-        <v>131810</v>
-      </c>
-      <c r="C27" s="11">
-        <v>204.94</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="G27" s="5">
-        <v>511</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I27" s="5" t="s">
+      <c r="A27" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" s="10">
+        <v>179</v>
+      </c>
+      <c r="C27" s="3">
+        <v>-9.15</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G27" s="2">
+        <v>314</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I27" s="2" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" customHeight="1">
       <c r="A28" s="8" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B28" s="9">
-        <v>131800</v>
+        <v>204001</v>
       </c>
       <c r="C28" s="11">
-        <v>11.33</v>
+        <v>241.61</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>13</v>
@@ -2295,13 +2341,13 @@
     </row>
     <row r="29" spans="1:9" ht="14.25">
       <c r="A29" s="8" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B29" s="9">
-        <v>511010</v>
+        <v>204007</v>
       </c>
       <c r="C29" s="11">
-        <v>1049.9000000000001</v>
+        <v>335</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>13</v>
@@ -2323,84 +2369,84 @@
       </c>
     </row>
     <row r="30" spans="1:9" ht="14.25">
-      <c r="A30" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B30" s="10">
-        <v>3376</v>
-      </c>
-      <c r="C30" s="3">
-        <v>948.08</v>
-      </c>
-      <c r="D30" s="2" t="s">
+      <c r="A30" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" s="9">
+        <v>131810</v>
+      </c>
+      <c r="C30" s="11">
+        <v>204.94</v>
+      </c>
+      <c r="D30" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E30" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G30" s="2">
+      <c r="E30" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G30" s="5">
         <v>511</v>
       </c>
-      <c r="H30" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I30" s="2" t="s">
+      <c r="H30" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I30" s="5" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A31" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B31" s="10">
-        <v>519776</v>
-      </c>
-      <c r="C31" s="3">
-        <v>553.48</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="G31" s="2">
-        <v>512</v>
-      </c>
-      <c r="H31" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="I31" s="15" t="s">
-        <v>86</v>
+      <c r="A31" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="9">
+        <v>131800</v>
+      </c>
+      <c r="C31" s="11">
+        <v>11.33</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G31" s="5">
+        <v>511</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="14.25">
       <c r="A32" s="8" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B32" s="9">
-        <v>518880</v>
+        <v>511010</v>
       </c>
       <c r="C32" s="11">
-        <v>-369</v>
+        <v>1049.9000000000001</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="G32" s="12">
-        <v>611</v>
+        <v>54</v>
+      </c>
+      <c r="G32" s="5">
+        <v>511</v>
       </c>
       <c r="H32" s="5" t="s">
         <v>8</v>
@@ -2411,71 +2457,71 @@
     </row>
     <row r="33" spans="1:9" ht="16.5" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B33" s="10">
-        <v>999979</v>
+        <v>3376</v>
       </c>
       <c r="C33" s="3">
-        <v>1251.27</v>
+        <v>948.08</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="G33" s="2">
-        <v>612</v>
+        <v>511</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I33" s="2" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A34" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B34" s="9">
-        <v>162411</v>
-      </c>
-      <c r="C34" s="11">
-        <v>6232.74</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="G34" s="12">
-        <v>613</v>
-      </c>
-      <c r="H34" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I34" s="5" t="s">
-        <v>85</v>
+      <c r="A34" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B34" s="10">
+        <v>519776</v>
+      </c>
+      <c r="C34" s="3">
+        <v>553.48</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G34" s="2">
+        <v>512</v>
+      </c>
+      <c r="H34" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="I34" s="15" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="14.25" customHeight="1">
       <c r="A35" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B35" s="9">
-        <v>501018</v>
+        <v>518880</v>
       </c>
       <c r="C35" s="11">
-        <v>202.82</v>
+        <v>-369</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>11</v>
@@ -2484,10 +2530,10 @@
         <v>50</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G35" s="12">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="H35" s="5" t="s">
         <v>8</v>
@@ -2498,115 +2544,115 @@
     </row>
     <row r="36" spans="1:9" ht="14.25" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B36" s="10">
-        <v>999998</v>
+        <v>999979</v>
       </c>
       <c r="C36" s="3">
-        <v>73772.44</v>
+        <v>1251.27</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>82</v>
+        <v>17</v>
       </c>
       <c r="G36" s="2">
-        <v>998</v>
-      </c>
-      <c r="H36" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="I36" s="15" t="s">
-        <v>86</v>
+        <v>612</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A37" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B37" s="10">
-        <v>999998</v>
-      </c>
-      <c r="C37" s="3">
-        <v>12928.46</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="G37" s="2">
-        <v>998</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I37" s="2" t="s">
+      <c r="A37" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" s="9">
+        <v>162411</v>
+      </c>
+      <c r="C37" s="11">
+        <v>6232.74</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G37" s="12">
+        <v>613</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I37" s="5" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A38" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B38" s="10">
-        <v>999999</v>
-      </c>
-      <c r="C38" s="3">
-        <v>5137.66</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G38" s="2">
-        <v>999</v>
-      </c>
-      <c r="H38" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="I38" s="15" t="s">
-        <v>86</v>
+      <c r="A38" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38" s="9">
+        <v>501018</v>
+      </c>
+      <c r="C38" s="11">
+        <v>202.82</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G38" s="12">
+        <v>613</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="14.25" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B39" s="10">
-        <v>999999</v>
+        <v>999998</v>
       </c>
       <c r="C39" s="3">
-        <v>1810.54</v>
+        <v>73772.44</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="G39" s="2">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="H39" s="16" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I39" s="15" t="s">
         <v>86</v>
@@ -2614,271 +2660,387 @@
     </row>
     <row r="40" spans="1:9" ht="14.25" customHeight="1">
       <c r="A40" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B40" s="10">
-        <v>999999</v>
+        <v>999998</v>
       </c>
       <c r="C40" s="3">
-        <v>29830.12</v>
+        <v>12928.46</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="G40" s="2">
-        <v>999</v>
-      </c>
-      <c r="H40" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="I40" s="15" t="s">
-        <v>86</v>
+        <v>998</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="14.25">
       <c r="A41" s="1" t="s">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="B41" s="10">
-        <v>999999</v>
+        <v>999998</v>
       </c>
       <c r="C41" s="3">
-        <v>2771.85</v>
+        <v>16142</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E41" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G41" s="2">
+        <v>998</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="14.25" customHeight="1">
+      <c r="A42" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B42" s="10">
+        <v>999999</v>
+      </c>
+      <c r="C42" s="3">
+        <v>5138.4799999999996</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F41" s="2" t="s">
+      <c r="F42" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="G41" s="2">
+      <c r="G42" s="2">
         <v>999</v>
       </c>
-      <c r="H41" s="2" t="s">
+      <c r="H42" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="I42" s="15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="14.25" customHeight="1">
+      <c r="A43" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B43" s="10">
+        <v>999999</v>
+      </c>
+      <c r="C43" s="3">
+        <v>1810.54</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G43" s="2">
+        <v>999</v>
+      </c>
+      <c r="H43" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="I43" s="15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A44" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B44" s="10">
+        <v>999999</v>
+      </c>
+      <c r="C44" s="3">
+        <v>29830.639999999999</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G44" s="2">
+        <v>999</v>
+      </c>
+      <c r="H44" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="I44" s="15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A45" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B45" s="10">
+        <v>999999</v>
+      </c>
+      <c r="C45" s="3">
+        <v>2771.85</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G45" s="2">
+        <v>999</v>
+      </c>
+      <c r="H45" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I41" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A42" s="8" t="s">
+      <c r="I45" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A46" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B42" s="9">
+      <c r="B46" s="9">
         <v>511990</v>
       </c>
-      <c r="C42" s="11">
+      <c r="C46" s="11">
         <v>1831.37</v>
       </c>
-      <c r="D42" s="5" t="s">
+      <c r="D46" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E42" s="5" t="s">
+      <c r="E46" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="F42" s="5" t="s">
+      <c r="F46" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="G42" s="5">
+      <c r="G46" s="5">
         <v>999</v>
       </c>
-      <c r="H42" s="5" t="s">
+      <c r="H46" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I42" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="14.25">
-      <c r="A43" s="8" t="s">
+      <c r="I46" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A47" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B43" s="9">
+      <c r="B47" s="9">
         <v>940018</v>
       </c>
-      <c r="C43" s="11">
+      <c r="C47" s="11">
         <v>380.43</v>
       </c>
-      <c r="D43" s="5" t="s">
+      <c r="D47" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E43" s="5" t="s">
+      <c r="E47" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="F43" s="5" t="s">
+      <c r="F47" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="G43" s="5">
+      <c r="G47" s="5">
         <v>999</v>
       </c>
-      <c r="H43" s="5" t="s">
+      <c r="H47" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I43" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A44" s="8" t="str">
+      <c r="I47" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A48" s="8" t="str">
         <f>"现金添富"</f>
         <v>现金添富</v>
       </c>
-      <c r="B44" s="9" t="str">
+      <c r="B48" s="9" t="str">
         <f>"511980"</f>
         <v>511980</v>
       </c>
-      <c r="C44" s="11">
+      <c r="C48" s="11">
         <v>17.25</v>
       </c>
-      <c r="D44" s="5" t="s">
+      <c r="D48" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E44" s="5" t="s">
+      <c r="E48" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="F44" s="5" t="s">
+      <c r="F48" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="G44" s="5">
+      <c r="G48" s="5">
         <v>999</v>
       </c>
-      <c r="H44" s="5" t="s">
+      <c r="H48" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I44" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A45" s="8" t="str">
+      <c r="I48" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="14.25">
+      <c r="A49" s="8" t="str">
         <f>"银华日利"</f>
         <v>银华日利</v>
       </c>
-      <c r="B45" s="9" t="str">
+      <c r="B49" s="9" t="str">
         <f>"511880"</f>
         <v>511880</v>
       </c>
-      <c r="C45" s="11">
+      <c r="C49" s="11">
         <v>12303.4</v>
       </c>
-      <c r="D45" s="5" t="s">
+      <c r="D49" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E45" s="5" t="s">
+      <c r="E49" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="F45" s="5" t="s">
+      <c r="F49" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="G45" s="5">
+      <c r="G49" s="5">
         <v>999</v>
       </c>
-      <c r="H45" s="5" t="s">
+      <c r="H49" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I45" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A46" s="1" t="s">
+      <c r="I49" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="14.25">
+      <c r="A50" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B46" s="10">
+      <c r="B50" s="10">
         <v>999999</v>
       </c>
-      <c r="C46" s="3">
-        <v>5674.89</v>
-      </c>
-      <c r="D46" s="2" t="s">
+      <c r="C50" s="3">
+        <v>5758.19</v>
+      </c>
+      <c r="D50" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E46" s="2" t="s">
+      <c r="E50" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F46" s="2" t="s">
+      <c r="F50" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="G46" s="2">
+      <c r="G50" s="2">
         <v>999</v>
       </c>
-      <c r="H46" s="2" t="s">
+      <c r="H50" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I46" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A47" s="1" t="s">
+      <c r="I50" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="14.25">
+      <c r="A51" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B47" s="10">
+      <c r="B51" s="10">
         <v>999999</v>
       </c>
-      <c r="C47" s="3">
+      <c r="C51" s="3">
+        <v>43.63</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G51" s="2">
+        <v>999</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="14.25">
+      <c r="A52" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B52" s="10">
+        <v>999999</v>
+      </c>
+      <c r="C52" s="3">
         <v>787.97</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="D52" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E47" s="2" t="s">
+      <c r="E52" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F47" s="2" t="s">
+      <c r="F52" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="G47" s="2">
+      <c r="G52" s="2">
         <v>999</v>
       </c>
-      <c r="H47" s="2" t="s">
+      <c r="H52" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="I47" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="14.25">
-      <c r="A48" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B48" s="10">
-        <v>999998</v>
-      </c>
-      <c r="C48" s="3">
-        <v>16142</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="G48" s="2">
-        <v>998</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="I48" s="2" t="s">
+      <c r="I52" s="2" t="s">
         <v>85</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:I47">
+  <sortState ref="A2:I52">
     <sortCondition ref="G1"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
